--- a/data/hotels_by_city/Houston/Houston_shard_542.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_542.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="606">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d109748-Reviews-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
   </si>
   <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Moody-Manor-Houston-Medical-Center.h10351047.Hotel-Information?chkin=7%2F23%2F2018&amp;chkout=7%2F24%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1531616861757&amp;cancellable=false&amp;regionId=178265&amp;vip=false&amp;c=9ccf8b4f-6d52-40fd-bee0-4a76f219c4dd&amp;mctc=9&amp;exp_dp=154.23&amp;exp_ts=1531616862284&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,1754 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r518174617-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>109748</t>
+  </si>
+  <si>
+    <t>518174617</t>
+  </si>
+  <si>
+    <t>08/27/2017</t>
+  </si>
+  <si>
+    <t>Medical visit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is an old apartment complex so the rooms are large. You have a full size kitchen.  The rooms are very clean.  Breakfast was okay, your normal hotel breakfast. Close to lots of restaurants and stores. </t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r508073377-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>508073377</t>
+  </si>
+  <si>
+    <t>08/02/2017</t>
+  </si>
+  <si>
+    <t>Need a upgrade</t>
+  </si>
+  <si>
+    <t>Location is very good, you have a Target very close, gas stations and the Highway.  Room look clean, but there was some insects...  Toilet was not working...The price was good but this place need some upgrades... Customer service  was very good.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r506630797-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>506630797</t>
+  </si>
+  <si>
+    <t>07/28/2017</t>
+  </si>
+  <si>
+    <t>Very happy with our choice</t>
+  </si>
+  <si>
+    <t>We only stayed here one night. We were in town for the dog show and wanted something close to the NRG Center.  We have stayed in Residence Inns in the past as knew what to expect.  We were not disappointed.  Our room was large and spacious.  The kitchen was clean and well appointed.  After a long day at the show, it was great to be able to relax in a living room area and watch TV while enjoying popcorn and a beverage.  We really liked that there was a grocery store next door and a drug store close by.  Staff were all very nice and seemed concerned with making our day pleasant.  The breakfast buffet was well stocked and fresh.  My only complaint was that the bed seemed too hard, but that may be a personal preference.  I would definitely stay here again in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We only stayed here one night. We were in town for the dog show and wanted something close to the NRG Center.  We have stayed in Residence Inns in the past as knew what to expect.  We were not disappointed.  Our room was large and spacious.  The kitchen was clean and well appointed.  After a long day at the show, it was great to be able to relax in a living room area and watch TV while enjoying popcorn and a beverage.  We really liked that there was a grocery store next door and a drug store close by.  Staff were all very nice and seemed concerned with making our day pleasant.  The breakfast buffet was well stocked and fresh.  My only complaint was that the bed seemed too hard, but that may be a personal preference.  I would definitely stay here again in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r501275879-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>501275879</t>
+  </si>
+  <si>
+    <t>07/12/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okay place, good breakfast </t>
+  </si>
+  <si>
+    <t>Okay place, looked good but found the pillows, blanket couch all smelled of mold. 1 pillow had to go in bathroom it smelled so bad. Loved having a kitchen and plates. Bathroom was good, except uneven floor tiles, stubbed toe in the middle of the night.  Had a great free breakfast!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r495245796-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>495245796</t>
+  </si>
+  <si>
+    <t>06/22/2017</t>
+  </si>
+  <si>
+    <t>Breakfast was really nice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">People really can "make" or "break" a business. I am pleased to say I had wonderful service and everyone was really helpful and friendly. The breakfast staff wanted no more than to look after their guests, which I found delightful and very refreshing as well as sincere. Top marks to Sotero !  Thank you !Thanks for the customer service and clean room </t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r494273523-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>494273523</t>
+  </si>
+  <si>
+    <t>06/19/2017</t>
+  </si>
+  <si>
+    <t>Roaches, no sound proofing, pitiful security.</t>
+  </si>
+  <si>
+    <t>The ceilings/floors are really thin and hollow.  A family of gorillas who feed their kids carbage and too much sugar was in the suite above me.  They played football (or something) from 5pm till 11:30 pm IN THIER ROOM.  I called security at 11ish wanting to sleep.  The guard knocked on their door and ended up hanging out on the front stoop for 30 minutes, shooting the s...t, laughing, joking loudly and NOT doing his job.  Then the gorillas came back inside and continued pounding on the floor.  Called again and they told me I could move.  Unacceptable.  If you want sleep be sure to get the upper level or go somewhere else.   I have to say this is NOT a good or safe neighborhood and many cars have been broken into here according to a breakfast staffer.   There were 4 roaches spotted in my kitchen.MoreShow less</t>
+  </si>
+  <si>
+    <t>The ceilings/floors are really thin and hollow.  A family of gorillas who feed their kids carbage and too much sugar was in the suite above me.  They played football (or something) from 5pm till 11:30 pm IN THIER ROOM.  I called security at 11ish wanting to sleep.  The guard knocked on their door and ended up hanging out on the front stoop for 30 minutes, shooting the s...t, laughing, joking loudly and NOT doing his job.  Then the gorillas came back inside and continued pounding on the floor.  Called again and they told me I could move.  Unacceptable.  If you want sleep be sure to get the upper level or go somewhere else.   I have to say this is NOT a good or safe neighborhood and many cars have been broken into here according to a breakfast staffer.   There were 4 roaches spotted in my kitchen.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r476890823-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>476890823</t>
+  </si>
+  <si>
+    <t>04/18/2017</t>
+  </si>
+  <si>
+    <t>Not too far from Medical Center but indifferent staff</t>
+  </si>
+  <si>
+    <t>Check in staff were cranky and not very pleasant.  Certainly do not make a customer feel welcomed.  Rooms are reasonably clean.   Breakfast typical but generally OK.  This is about a mile walk to MD Anderson along a tree lined street so not onerous.  Took about 15 minutes or so.  Next door to a Courtyard that has a restaurant and bar which is good as there is little within walking distance</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r474039331-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>474039331</t>
+  </si>
+  <si>
+    <t>04/10/2017</t>
+  </si>
+  <si>
+    <t>Home at a Needed Time</t>
+  </si>
+  <si>
+    <t>We booked this suite at the last minute bc of a medical emergency.The drive from MDA to this hotel was so easy to get to. Not only were the staff amazingly professional but the little homey touches meant so much. Upon booking the suite I was offered a medical discount and the staff were like family even on the phone during booking. The concern was remarkable. I was touched.
+Upon arrival, we were greeted by a most competent young man who I believe was certainly the manager based on his knowledge and wonderful demeanor in getting us ready to go to our room.
+The suite was amazing and an added bonus was the pool. We were able to unwind and really have the opportunity to relax at the beautiful and exceptionally clean pool area. 
+There was a very kind and touching card located on one of the beds regarding our medical situation. Personally, I have never in all my travels been to a more comforting, immaculent and so hygenic accomodation. The beds were remarkably comfortable and smelled so fresh and wonderful.
+I loved sleeping in the beds provided in the suite.
+There were clean appliances and there was a grocery store right around the corner, literally.
+There were even complimentary condiments and popcorn! And the bonus was a delicious free hot breakfast buffet that was incredible.
+They offered a happy hour the night before too which was also complimentary.
+We...We booked this suite at the last minute bc of a medical emergency.The drive from MDA to this hotel was so easy to get to. Not only were the staff amazingly professional but the little homey touches meant so much. Upon booking the suite I was offered a medical discount and the staff were like family even on the phone during booking. The concern was remarkable. I was touched.Upon arrival, we were greeted by a most competent young man who I believe was certainly the manager based on his knowledge and wonderful demeanor in getting us ready to go to our room.The suite was amazing and an added bonus was the pool. We were able to unwind and really have the opportunity to relax at the beautiful and exceptionally clean pool area. There was a very kind and touching card located on one of the beds regarding our medical situation. Personally, I have never in all my travels been to a more comforting, immaculent and so hygenic accomodation. The beds were remarkably comfortable and smelled so fresh and wonderful.I loved sleeping in the beds provided in the suite.There were clean appliances and there was a grocery store right around the corner, literally.There were even complimentary condiments and popcorn! And the bonus was a delicious free hot breakfast buffet that was incredible.They offered a happy hour the night before too which was also complimentary.We will definitely choose Residence Inn Houston Medical Center/NRG Park EVERY TIME we travel to Houston!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>We booked this suite at the last minute bc of a medical emergency.The drive from MDA to this hotel was so easy to get to. Not only were the staff amazingly professional but the little homey touches meant so much. Upon booking the suite I was offered a medical discount and the staff were like family even on the phone during booking. The concern was remarkable. I was touched.
+Upon arrival, we were greeted by a most competent young man who I believe was certainly the manager based on his knowledge and wonderful demeanor in getting us ready to go to our room.
+The suite was amazing and an added bonus was the pool. We were able to unwind and really have the opportunity to relax at the beautiful and exceptionally clean pool area. 
+There was a very kind and touching card located on one of the beds regarding our medical situation. Personally, I have never in all my travels been to a more comforting, immaculent and so hygenic accomodation. The beds were remarkably comfortable and smelled so fresh and wonderful.
+I loved sleeping in the beds provided in the suite.
+There were clean appliances and there was a grocery store right around the corner, literally.
+There were even complimentary condiments and popcorn! And the bonus was a delicious free hot breakfast buffet that was incredible.
+They offered a happy hour the night before too which was also complimentary.
+We...We booked this suite at the last minute bc of a medical emergency.The drive from MDA to this hotel was so easy to get to. Not only were the staff amazingly professional but the little homey touches meant so much. Upon booking the suite I was offered a medical discount and the staff were like family even on the phone during booking. The concern was remarkable. I was touched.Upon arrival, we were greeted by a most competent young man who I believe was certainly the manager based on his knowledge and wonderful demeanor in getting us ready to go to our room.The suite was amazing and an added bonus was the pool. We were able to unwind and really have the opportunity to relax at the beautiful and exceptionally clean pool area. There was a very kind and touching card located on one of the beds regarding our medical situation. Personally, I have never in all my travels been to a more comforting, immaculent and so hygenic accomodation. The beds were remarkably comfortable and smelled so fresh and wonderful.I loved sleeping in the beds provided in the suite.There were clean appliances and there was a grocery store right around the corner, literally.There were even complimentary condiments and popcorn! And the bonus was a delicious free hot breakfast buffet that was incredible.They offered a happy hour the night before too which was also complimentary.We will definitely choose Residence Inn Houston Medical Center/NRG Park EVERY TIME we travel to Houston!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r465557146-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>465557146</t>
+  </si>
+  <si>
+    <t>03/08/2017</t>
+  </si>
+  <si>
+    <t>Much improved</t>
+  </si>
+  <si>
+    <t>Stayed here last July and cannot pinpoint the reason, but this RI seems cleaner and more organized this time. Rodeo time now and place is full but everything seems a bit nicer. Brekkie is great as are evening social hours on Monday and Tuesday evenings.  Complimentary beer and wine as well. Staff is always super and it appears there are more of them for rodeo. Entire area has improved since Super Bowl in February. A shuttle to NRG stadium is provided which is awesome. Shuttles to medical center as well. Pet friendly but guests please pick up your dog's poop!   I always pick up my pooch's poop plus that of others. Please do not ruin ability to have pets allowed by being inconsiderate. Decor is a bit dated but room was clean and comfy. Second floors are more private and no foot traffic but stairs only. Kitchen is updated and has oven and microwave unlike many newer RI's with only cooktops. Kroger next door. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Stayed here last July and cannot pinpoint the reason, but this RI seems cleaner and more organized this time. Rodeo time now and place is full but everything seems a bit nicer. Brekkie is great as are evening social hours on Monday and Tuesday evenings.  Complimentary beer and wine as well. Staff is always super and it appears there are more of them for rodeo. Entire area has improved since Super Bowl in February. A shuttle to NRG stadium is provided which is awesome. Shuttles to medical center as well. Pet friendly but guests please pick up your dog's poop!   I always pick up my pooch's poop plus that of others. Please do not ruin ability to have pets allowed by being inconsiderate. Decor is a bit dated but room was clean and comfy. Second floors are more private and no foot traffic but stairs only. Kitchen is updated and has oven and microwave unlike many newer RI's with only cooktops. Kroger next door. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r443192168-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>443192168</t>
+  </si>
+  <si>
+    <t>12/09/2016</t>
+  </si>
+  <si>
+    <t>Disappointing</t>
+  </si>
+  <si>
+    <t>Was given a room that wasn't even labelled Residence Inn since it wasn't up to standards.  Perhaps in the process of renovations.  Desk staff was very friendly and they offered the room at no charge, but it was dingy and the A/C wasn't working.  Ended up not staying there and went to the Courtyard next door.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r436853712-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>436853712</t>
+  </si>
+  <si>
+    <t>11/13/2016</t>
+  </si>
+  <si>
+    <t>1 Week Business Trip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stayed here for a week long business trip. Average Marriott brand offering. The bed was comfortable and I used the built in kitchen extensively. I used the onsite laundry and had a few of the breakfasts.The staff seemed very friendly and professional.Issues-No on site fitness. Ran 0.6 miles to nearby springhill suites.I also noticed mold growing above the bath tub.(pictures attached) management and housekeeping was informed.Tips- try to get an upstairs room; the Kroger next door is great for saving money on meals; </t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r434942276-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>434942276</t>
+  </si>
+  <si>
+    <t>11/05/2016</t>
+  </si>
+  <si>
+    <t>Awesome Stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I cannot give this hotel enough credit for making a difficult time in our life a bright spot!!!  From check in to check out everything was perfect. Our room was located in building 4 a very short walk to the office lobby.  We found our room to be clean and well-equipped.  The entire staff from the front desk, maid service, maintenance and breakfast service was excellent and very friendly.  The hotel is located perfectly for medical care and restaurants.  I highly recommend this hotel and will stay here again!  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r411018239-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>411018239</t>
+  </si>
+  <si>
+    <t>08/26/2016</t>
+  </si>
+  <si>
+    <t>okay stay</t>
+  </si>
+  <si>
+    <t>Stayed for 2 nights in a 2- bedroom suite.  The good:  Spacious room and convenient location. Breakfast choices were just okay. A Kroger supermarket (with a Starbucks) is right next door. The bad:  Ice machine was loud when the ice dropped into the bin.  Woke us up a couple of times during the night.  The noise from the AC didn't bother me too much but my husband is a light sleeper so it was a problem for him.  Everything seems a bit worn down.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r408983021-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>408983021</t>
+  </si>
+  <si>
+    <t>08/22/2016</t>
+  </si>
+  <si>
+    <t>A bit scary if you're traveling alone...</t>
+  </si>
+  <si>
+    <t>I have stayed in this property twice for business over the last couple of weeks. The first trip, I arrived during daylight hours. I was assigned a room on the upper floor of building 8. Since I was traveling only overnight, and therefore traveling light, it wasn't a problem for me to take my computer bag and shoulder bag up the steps to the room. I also didn't have any business that kept me out after dark. The room was just as expected from a Residence Inn room; full kitchen, with a programmable coffeemaker. Comfy bed; able to accommodate a slightly later checkout request.  Standard nice Residence Inn room.The second stay left me a bit apprehensive. I didn't arrive until nearly 10PM. Since I was to be traveling for the entire week, I had extra luggage and so requested not to be put on the second floor (of note; no elevators, so no choice except to climb stairs.) The clerk showed me two available rooms he had: First, a second floor room fairly close to the office ( however, this didn't address having to climb two flights of steps with luggage). The second, a ground-floor room in building 6. He announced in a booming voice that I might want to take the other room, as sometimes women traveling by themselves might not be comfortable staying that far away from the office. Thanks... just in case some of the other folks...I have stayed in this property twice for business over the last couple of weeks. The first trip, I arrived during daylight hours. I was assigned a room on the upper floor of building 8. Since I was traveling only overnight, and therefore traveling light, it wasn't a problem for me to take my computer bag and shoulder bag up the steps to the room. I also didn't have any business that kept me out after dark. The room was just as expected from a Residence Inn room; full kitchen, with a programmable coffeemaker. Comfy bed; able to accommodate a slightly later checkout request.  Standard nice Residence Inn room.The second stay left me a bit apprehensive. I didn't arrive until nearly 10PM. Since I was to be traveling for the entire week, I had extra luggage and so requested not to be put on the second floor (of note; no elevators, so no choice except to climb stairs.) The clerk showed me two available rooms he had: First, a second floor room fairly close to the office ( however, this didn't address having to climb two flights of steps with luggage). The second, a ground-floor room in building 6. He announced in a booming voice that I might want to take the other room, as sometimes women traveling by themselves might not be comfortable staying that far away from the office. Thanks... just in case some of the other folks in the lobby might have missed it, there's a woman traveling alone! Right here! I chose that room as I didn't want to have to lug a suitcase, computer bag, shoulder bag, and my dinner up the steps.  As I tried to get into my room, I noticed that the porch light didn't work...so here I am, all this luggage, trying to get into this room QUICKLY in the dark.After I got into the room, then I noticed that there were sliding glass doors leading from the room  to the ground-level patio. This didn't do much to make me feel safer staying around the corner from the office. And although I'm sure that the folks I saw walking around between the buildings outside my room were just going back and forth to their cars or  back and forth to the office, it didn't contribute to my feeling of security at being alone, either. When I got ready to print my boarding pass the next morning, the printer was not working. Both clerks were aware that the printer wasn't working. I was told that I needed to have the manager let me use their printer behind the counter...and she would be in at 9:00. It was 9:20... They shrugged apologetically and said she should be here any time. As I had another appointment and had to check out, one of the clerks called the Courtyard next door to see if it would be OK to send me to print my boarding pass there. I got the OK, and walked next door to print my boarding pass there. When I arrived there, I discovered that their printer was also not working. The clerk at the Courtyard took out the toner cartridge, shook it, and said that it should work now...which tells me that the cartridge needed to be replaced. At least I was able to print my boarding pass! I noticed that this Courtyard has inside room access as well...noted that for a return visit to the area.While I usually enjoy Residence Inn properties, I most likely won't return to this one. I am not a worry wart, and have traveled extensively by myself. However, this property left me feeling a bit ill at ease as to my safety at night (particularly after the clerk  loudly announced that I was traveling alone).MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed in this property twice for business over the last couple of weeks. The first trip, I arrived during daylight hours. I was assigned a room on the upper floor of building 8. Since I was traveling only overnight, and therefore traveling light, it wasn't a problem for me to take my computer bag and shoulder bag up the steps to the room. I also didn't have any business that kept me out after dark. The room was just as expected from a Residence Inn room; full kitchen, with a programmable coffeemaker. Comfy bed; able to accommodate a slightly later checkout request.  Standard nice Residence Inn room.The second stay left me a bit apprehensive. I didn't arrive until nearly 10PM. Since I was to be traveling for the entire week, I had extra luggage and so requested not to be put on the second floor (of note; no elevators, so no choice except to climb stairs.) The clerk showed me two available rooms he had: First, a second floor room fairly close to the office ( however, this didn't address having to climb two flights of steps with luggage). The second, a ground-floor room in building 6. He announced in a booming voice that I might want to take the other room, as sometimes women traveling by themselves might not be comfortable staying that far away from the office. Thanks... just in case some of the other folks...I have stayed in this property twice for business over the last couple of weeks. The first trip, I arrived during daylight hours. I was assigned a room on the upper floor of building 8. Since I was traveling only overnight, and therefore traveling light, it wasn't a problem for me to take my computer bag and shoulder bag up the steps to the room. I also didn't have any business that kept me out after dark. The room was just as expected from a Residence Inn room; full kitchen, with a programmable coffeemaker. Comfy bed; able to accommodate a slightly later checkout request.  Standard nice Residence Inn room.The second stay left me a bit apprehensive. I didn't arrive until nearly 10PM. Since I was to be traveling for the entire week, I had extra luggage and so requested not to be put on the second floor (of note; no elevators, so no choice except to climb stairs.) The clerk showed me two available rooms he had: First, a second floor room fairly close to the office ( however, this didn't address having to climb two flights of steps with luggage). The second, a ground-floor room in building 6. He announced in a booming voice that I might want to take the other room, as sometimes women traveling by themselves might not be comfortable staying that far away from the office. Thanks... just in case some of the other folks in the lobby might have missed it, there's a woman traveling alone! Right here! I chose that room as I didn't want to have to lug a suitcase, computer bag, shoulder bag, and my dinner up the steps.  As I tried to get into my room, I noticed that the porch light didn't work...so here I am, all this luggage, trying to get into this room QUICKLY in the dark.After I got into the room, then I noticed that there were sliding glass doors leading from the room  to the ground-level patio. This didn't do much to make me feel safer staying around the corner from the office. And although I'm sure that the folks I saw walking around between the buildings outside my room were just going back and forth to their cars or  back and forth to the office, it didn't contribute to my feeling of security at being alone, either. When I got ready to print my boarding pass the next morning, the printer was not working. Both clerks were aware that the printer wasn't working. I was told that I needed to have the manager let me use their printer behind the counter...and she would be in at 9:00. It was 9:20... They shrugged apologetically and said she should be here any time. As I had another appointment and had to check out, one of the clerks called the Courtyard next door to see if it would be OK to send me to print my boarding pass there. I got the OK, and walked next door to print my boarding pass there. When I arrived there, I discovered that their printer was also not working. The clerk at the Courtyard took out the toner cartridge, shook it, and said that it should work now...which tells me that the cartridge needed to be replaced. At least I was able to print my boarding pass! I noticed that this Courtyard has inside room access as well...noted that for a return visit to the area.While I usually enjoy Residence Inn properties, I most likely won't return to this one. I am not a worry wart, and have traveled extensively by myself. However, this property left me feeling a bit ill at ease as to my safety at night (particularly after the clerk  loudly announced that I was traveling alone).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r392653705-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>392653705</t>
+  </si>
+  <si>
+    <t>07/14/2016</t>
+  </si>
+  <si>
+    <t>Great Location and Plenty of Space</t>
+  </si>
+  <si>
+    <t>My family stayed here for the Final Four this past April.  We loved the pool, basketball courts, and having plenty of space in the 2 bedroom penthouse suite.  We also loved being so close to restaurants, shopping and museums.  We were able to walk to the NRG center where the games were held.  The hotel is also pet friendly so we enjoyed having our small dog with us.   The room was comfortable but could use updating for the furniture, paint, and bedding.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r370764398-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>370764398</t>
+  </si>
+  <si>
+    <t>05/06/2016</t>
+  </si>
+  <si>
+    <t>Good hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stayed at this hotel for the Offshore Technology Conference in Houston. This hotel is within walking distance of the NRG center, although I would not walk if it was much warmer. (I'm from Wyoming so I don't get along with humidity.)  The staff is very friendly, and helpful, there is a Kroger right next door as well so if you want to keep it cheap the in room Kitchen comes in handy with the grocery store so close. I would stay here again if I had more business in South Houston. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r364797114-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>364797114</t>
+  </si>
+  <si>
+    <t>04/17/2016</t>
+  </si>
+  <si>
+    <t>Mecum Auction Weekend</t>
+  </si>
+  <si>
+    <t>Front Desk staff were friendly but a little slow with the process. Location is about one half mile from NRG Center. They do offer a free shuttle to the front gate of the center.Outside of the facility could use a coat of paint on the trim but inside the rooms were satisfactory for our visit. Next door is a Kroger with a Starbucks inside and makes it very convenient to walk over. Checkout was fast and efficient.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r361632322-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>361632322</t>
+  </si>
+  <si>
+    <t>04/04/2016</t>
+  </si>
+  <si>
+    <t>Final Four visit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The location is great for events at NRG. The shuttle takes you just outside the parking areas for the arena. Due to the volume of people waiting for transportation after the Final Four games, we walked back with our teen sons. It is an easy walk, sidewalks the whole way. With game crowds, we felt safe. Probably wouldn't attempt the walk on a quiet night. Great pool area, breakfast was decent and the rooms were clean but dated. The staff was very attentive. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r339948019-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>339948019</t>
+  </si>
+  <si>
+    <t>01/14/2016</t>
+  </si>
+  <si>
+    <t>Very nice location and hotel</t>
+  </si>
+  <si>
+    <t>Great location to the medical center with great prices for the rooms. Easy to find - lobby staff very friendly. Snacks served Monday-Wednesday evening for about 1 1/2 hours in the evening. Rooms are just a bit old BUT very well kept and very clean. WILL stay there again!</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r332167536-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>332167536</t>
+  </si>
+  <si>
+    <t>12/11/2015</t>
+  </si>
+  <si>
+    <t>Needs.... more</t>
+  </si>
+  <si>
+    <t>I've stayed in Residence Inns all over the country, and this is the worst I've stayed in.  The grounds are shabby and dated, painting nicked, sidewalks buckled and cracked, bits of trash on the grounds, etc. First impressions were not good. The room was a slight improvement, and more to Marriott's standards, but even then had a general musty smell, furniture was nicked, scuffed, and broken, the plug next to the desk was broken, the bathroom was very poorly lit, the shower was just plain dark, and the carpet was stained in several places. Also, for the first time that I've ever seen at a Residence Inn, there was not a gym on site.  They offered a shuttle to a nearby sister hotel, which had a gym.  On a positive note, the bed was usual Marriott comfiness, I saw no bugs, and it was close to the Medical center and right next door to a big Kroger grocery store (with a gate through the connecting fence).MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>I've stayed in Residence Inns all over the country, and this is the worst I've stayed in.  The grounds are shabby and dated, painting nicked, sidewalks buckled and cracked, bits of trash on the grounds, etc. First impressions were not good. The room was a slight improvement, and more to Marriott's standards, but even then had a general musty smell, furniture was nicked, scuffed, and broken, the plug next to the desk was broken, the bathroom was very poorly lit, the shower was just plain dark, and the carpet was stained in several places. Also, for the first time that I've ever seen at a Residence Inn, there was not a gym on site.  They offered a shuttle to a nearby sister hotel, which had a gym.  On a positive note, the bed was usual Marriott comfiness, I saw no bugs, and it was close to the Medical center and right next door to a big Kroger grocery store (with a gate through the connecting fence).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r330772170-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>330772170</t>
+  </si>
+  <si>
+    <t>12/04/2015</t>
+  </si>
+  <si>
+    <t>Massive Room Reeked of Smoke</t>
+  </si>
+  <si>
+    <t>I hope that my experience here is uncommon.  First, the positive.  Some of the rooms on offer at this hotel are positively massive.  I was in a two story, two bedroom unit, one of which was a loft overlooking the living room and fully stocked kitchen.  The space was unlike anything I had ever seen and would be GREAT for a vacationing family that needed a place to stay for an extended amount of time.However, my room reeked of smoke despite being a non-smoking room, and the front desk was unable to put me in any other rooms.  To me, this is completely unacceptable.  Also, there's a nice breakfast area with friendly staff members there to greet you, but my eggs and potatoes tasted just bizarre enough to be inedible.  The smoke infused room and crummy breakfast are in stark contrast to certain competitor hotel chains who will be receiving my business in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>I hope that my experience here is uncommon.  First, the positive.  Some of the rooms on offer at this hotel are positively massive.  I was in a two story, two bedroom unit, one of which was a loft overlooking the living room and fully stocked kitchen.  The space was unlike anything I had ever seen and would be GREAT for a vacationing family that needed a place to stay for an extended amount of time.However, my room reeked of smoke despite being a non-smoking room, and the front desk was unable to put me in any other rooms.  To me, this is completely unacceptable.  Also, there's a nice breakfast area with friendly staff members there to greet you, but my eggs and potatoes tasted just bizarre enough to be inedible.  The smoke infused room and crummy breakfast are in stark contrast to certain competitor hotel chains who will be receiving my business in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r305925470-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>305925470</t>
+  </si>
+  <si>
+    <t>09/01/2015</t>
+  </si>
+  <si>
+    <t>The best service I have ever recieved</t>
+  </si>
+  <si>
+    <t>Traveling alone to new destination, gps not working, I called the front desk for directions.  I was following them, in heavy traffic in the dark and was forced to exit the highway due to a bad accident.  The exit put me in a bad part of town and I did not know how to get to the hotel from there.  I called the hotel again and the gentleman at the front desk stayed on the phone with me the entire drive, guiding me step by step to a safe arrival.  The hotel was great, clean, comfortable, with access to anything needed.  I would recommend!</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r300470757-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>300470757</t>
+  </si>
+  <si>
+    <t>08/17/2015</t>
+  </si>
+  <si>
+    <t>The kind of place you wouldn't mind living in</t>
+  </si>
+  <si>
+    <t>I hate I was only here for 1 night.  These rooms are basically 1 bedroom apartments.  Full Grocery store just through the gate in the fence.  Walking distance to plenty of shopping and food.  Walking distance to the Football stadium.  and a very short Uber to anywhere downtown.  This is one of the best hotels I've ever stayed in.  Really gave me the feeling that I was at home, although I was 1,000 plus miles from home.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r299396750-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>299396750</t>
+  </si>
+  <si>
+    <t>08/14/2015</t>
+  </si>
+  <si>
+    <t>Horrible Marriott owned. Property</t>
+  </si>
+  <si>
+    <t>This place sucks!  Marriott should be ashamed to put it's name on this property.  First, the location is questionable.  Having never been to Houston I asked for a Marriott property near NRG stadium.  Mistake #1.  Should have done more homework but thinking it was a Marriott property so it would be in a descent location.  NOT!  Secondly, some of the customers were questionable as well.  Thirdly, the room setup was not functional.  The crappy sofa bed set right in the middle of the walking path to the kitchen area and the exit.  I've stayed at other residence inns and this was, by far, the worst set up I've seen.  Lastly, and the icing on the cake,, our room temp went up to 85 degrees despite setting the thermostat to its lowest setting.  With that, my family and I had to move to a different room at 1218 am due to the heat.  No maintenance on site to work issues.  The sad part is that I had already made the decision that we would not be staying for the second night.  Although I am a Marriott rewards member, we ended up moving to a Hilton owned property.   Imagine that. MoreShow less</t>
+  </si>
+  <si>
+    <t>This place sucks!  Marriott should be ashamed to put it's name on this property.  First, the location is questionable.  Having never been to Houston I asked for a Marriott property near NRG stadium.  Mistake #1.  Should have done more homework but thinking it was a Marriott property so it would be in a descent location.  NOT!  Secondly, some of the customers were questionable as well.  Thirdly, the room setup was not functional.  The crappy sofa bed set right in the middle of the walking path to the kitchen area and the exit.  I've stayed at other residence inns and this was, by far, the worst set up I've seen.  Lastly, and the icing on the cake,, our room temp went up to 85 degrees despite setting the thermostat to its lowest setting.  With that, my family and I had to move to a different room at 1218 am due to the heat.  No maintenance on site to work issues.  The sad part is that I had already made the decision that we would not be staying for the second night.  Although I am a Marriott rewards member, we ended up moving to a Hilton owned property.   Imagine that. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r285195733-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>285195733</t>
+  </si>
+  <si>
+    <t>07/02/2015</t>
+  </si>
+  <si>
+    <t>Good enough</t>
+  </si>
+  <si>
+    <t>Upon arrival I didn't feel like the staff was very welcoming, the room door wasn't opening, guest services had new keys made but said my room number aloud, which is a big no no. David assisted with opening our door and said we just have to push hard to open it. Up stairs toilet didn't flush throughly without holding on to handle and lastly, the stove door doesn't open fully without you pulling really hard, hence the marks on the wall. I'm by no means complaining if it seems that way. I'm just letting you all what should be worked on. I loved the bed and the layout.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r284753949-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>284753949</t>
+  </si>
+  <si>
+    <t>07/01/2015</t>
+  </si>
+  <si>
+    <t>Overall Great Experience</t>
+  </si>
+  <si>
+    <t>We stayed at the Residence Inn while in town for a medical visit with MD Anderson. This hotel was recommended by travel services through the hospital. We were very pleased with the stay. Our room was considered a Loft/Suite and was very spacious. The loft bed/area was very comfortable. We were a little shocked that the second bed was not a stand alone, it folded from the wall and was not very comfortable to sleep on. It was a little difficult to cool down during the day and we were there in the dead of summer. It was not uncomfortable by any means, just the layout of the unit. It cooled down nicely at night. The rooms were clean, the staff was friendly, and accommodating. They even set up the breakfast area early so we were able to get a little food in before a very early appointment. The shuttle service available is convenient and timely. We would definitely stay again!MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at the Residence Inn while in town for a medical visit with MD Anderson. This hotel was recommended by travel services through the hospital. We were very pleased with the stay. Our room was considered a Loft/Suite and was very spacious. The loft bed/area was very comfortable. We were a little shocked that the second bed was not a stand alone, it folded from the wall and was not very comfortable to sleep on. It was a little difficult to cool down during the day and we were there in the dead of summer. It was not uncomfortable by any means, just the layout of the unit. It cooled down nicely at night. The rooms were clean, the staff was friendly, and accommodating. They even set up the breakfast area early so we were able to get a little food in before a very early appointment. The shuttle service available is convenient and timely. We would definitely stay again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r284507939-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>284507939</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>Excellent Hotel for Medical purposes</t>
+  </si>
+  <si>
+    <t>My husband &amp; I have stayed here a few times in the past month while my husband was having treatment in the medical center. It is convenient to the medical center &amp; they have a shuttle that runs every 30 minutes. They provide a very nice hot breakfast &amp; evening snacks &amp; drinks.  It is right next door to a Kroger Grocery Store so if you have forgotten anything you can run over there. They also have a full kitchen if you need to fix your own meal</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r278320478-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>278320478</t>
+  </si>
+  <si>
+    <t>06/06/2015</t>
+  </si>
+  <si>
+    <t>Would never stay here if it were not for the Kroger</t>
+  </si>
+  <si>
+    <t>My husband and I are regular guest at this hotel because of his treatment at MD Anderson.  We have tried several hotels in the area and frankly none of them are great.  We stay here only because of the convenience to the hospital and the Kroger, which is next door.  The hotel needs a serious upgrade.  it is old , the decor is dark and dated and because it is pet friendly I am beginning to think it is not all that clean.  we have been staying here off and on for 18 months and i am sure the carpet has never been cleaned.  Even the lobby has food stains on the carpet and it just gives me the creeps. The staff has been fairly accommodating but at times not so.  the guys who drive  the shuttles are very nice and we always tip them .   I love the location so I just accept these deficiencies because we are normally here only one night. if you are a business traveler , do not stay here.     i am surprised Mariott let's this place put the Marriot name on it.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I are regular guest at this hotel because of his treatment at MD Anderson.  We have tried several hotels in the area and frankly none of them are great.  We stay here only because of the convenience to the hospital and the Kroger, which is next door.  The hotel needs a serious upgrade.  it is old , the decor is dark and dated and because it is pet friendly I am beginning to think it is not all that clean.  we have been staying here off and on for 18 months and i am sure the carpet has never been cleaned.  Even the lobby has food stains on the carpet and it just gives me the creeps. The staff has been fairly accommodating but at times not so.  the guys who drive  the shuttles are very nice and we always tip them .   I love the location so I just accept these deficiencies because we are normally here only one night. if you are a business traveler , do not stay here.     i am surprised Mariott let's this place put the Marriot name on it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r277678968-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>277678968</t>
+  </si>
+  <si>
+    <t>06/03/2015</t>
+  </si>
+  <si>
+    <t>Great Place to stay</t>
+  </si>
+  <si>
+    <t>Very close to several hospitals.  Very roomy rooms and complete kitchens for cooking, heating or microwaving food.  Full size refrigerator.  Convenient location. I stayed here to visit my newborn grandson at the Women's hospital which was 5 minutes away.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r274660334-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>274660334</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Pleasant Clean Friendly Staff &amp; Good Location</t>
+  </si>
+  <si>
+    <t>The staff was very pleasant. The room was spacious, clean and comfortable. The AC actually cooled the room to the temperature you set the thermostat at! the location is convenient to NRG field and the Medical center. Overall a place I will definitely stay again.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r266498945-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>266498945</t>
+  </si>
+  <si>
+    <t>04/18/2015</t>
+  </si>
+  <si>
+    <t>Great for extended stay</t>
+  </si>
+  <si>
+    <t>This is an early generation RI. This it is 2 stories with outside walk up stairs. We stayed here several years ago for a race. It has been nicely renovated inside the rooms. A full kitchen with a full size refrigerator and a full size stove with a stove! There is a Kroger grocery store next door which is fantastic. The free chips and beer is  3-4 night. Many good places to eat and the shuttle runs to many. At peak times make a reservation. I believe it also runs to the Medical Center.  Staff was really friendly and efficient. This location is perfect for an extended stay!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r266158399-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>266158399</t>
+  </si>
+  <si>
+    <t>04/16/2015</t>
+  </si>
+  <si>
+    <t>Should be demolished</t>
+  </si>
+  <si>
+    <t>Since it is close to the med center and a decent rate, I booked the hotel. I travel frequently for work and marriott brands are almost always great. Not this property. The room had an outside entrance, and it didn't shut very securely. The area is also dark at night and does not feel safe. Inside the room looked like something out of an A&amp;E crime show.  Old furniture, carpet, fixtures, poor lighting. The water also never got above luke warm in the shower.  The only positive thing about the hotel was the evening appetizers and breakfast in the morning. I would never stay here again.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r252890367-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>252890367</t>
+  </si>
+  <si>
+    <t>02/06/2015</t>
+  </si>
+  <si>
+    <t>Our go-to place in Houston</t>
+  </si>
+  <si>
+    <t>We have stayed in this Residence Inn many, many times, in conjunction with our trips to MD Anderson Cancer Center.  Our longest stay was two months.  We choose to stay here for several reasons:  it is close to MD Anderson, and the hotel runs free shuttles to and from MDA every half hour.  Additionally, the shuttle will take you to and from Rice Village, near the campus of Rice University, where there are many restaurants and shops.  There are also several places near the hotel where one can eat, including a really nice Thai restaurant just around the corner, on Kirby Rd.  There's a good lunch place, The Spicy Pickle, within short walking distance, as well as a decent Olive Garden.  Like all Residence Inns, most if not all the rooms have full kitchens, and right next door to the hotel is a very nice Kroger grocery store.  One wouldn't have to go out to eat at all if he/she so chooses.  The staff at the Residence Inn is friendly and very accommodating.  Included in the cost of the room is a full breakfast each day and a social hour/happy hour every Monday thru Thursday from 6 to 7:30.  We have stayed in and enjoyed other hotels in this same area, but our favorite, especially for longer stays, is this Residence Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>We have stayed in this Residence Inn many, many times, in conjunction with our trips to MD Anderson Cancer Center.  Our longest stay was two months.  We choose to stay here for several reasons:  it is close to MD Anderson, and the hotel runs free shuttles to and from MDA every half hour.  Additionally, the shuttle will take you to and from Rice Village, near the campus of Rice University, where there are many restaurants and shops.  There are also several places near the hotel where one can eat, including a really nice Thai restaurant just around the corner, on Kirby Rd.  There's a good lunch place, The Spicy Pickle, within short walking distance, as well as a decent Olive Garden.  Like all Residence Inns, most if not all the rooms have full kitchens, and right next door to the hotel is a very nice Kroger grocery store.  One wouldn't have to go out to eat at all if he/she so chooses.  The staff at the Residence Inn is friendly and very accommodating.  Included in the cost of the room is a full breakfast each day and a social hour/happy hour every Monday thru Thursday from 6 to 7:30.  We have stayed in and enjoyed other hotels in this same area, but our favorite, especially for longer stays, is this Residence Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r244008716-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>244008716</t>
+  </si>
+  <si>
+    <t>12/11/2014</t>
+  </si>
+  <si>
+    <t>Located Well for Patients</t>
+  </si>
+  <si>
+    <t>This property is well located for clients visiting the medical centers. The rooms are weary and need an update. Pool area is nice and has two gas grills that are handy for cooking something from Kroger which is only steps from the property.Desk staff is pleasant and breakfast staff is great.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r243303802-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>243303802</t>
+  </si>
+  <si>
+    <t>12/07/2014</t>
+  </si>
+  <si>
+    <t>Horrified how they treat guests</t>
+  </si>
+  <si>
+    <t>I stayed here for 3 days basically after a break up to help clear my head.  First its an old dated property, which I could handle except for the staff.  Rude.  Hateful.  Unprofessional.My last morning there I was rushed to the ER and in for emergency surgery that afternoon.  I made a call and explained myself to the hateful young woman on the phone and asked if I could extend my stay at the same rate, which granted is much lower than a normal person sees, OR if she couldn't, please gather my belongs and hold them for me at the front desk since I was near death.  She put me on hold, came back on and said she wouldn't or couldn't gather my personal items in the room and my only option was to charge me a full rate for another night?  A $200 dollar room, charge, larceny basically since I never touch that day.  I sent a friend to collect my things that next evening.  The same woman tried to charge HIM for a night or she wasn't going to give access to the room and my suitcase, laptop  He convinced her not to thank goodness.  I have NEVER in all my travels, ever experienced such a selfish, uncaring staff who did what they did without any consideration for the guest.  Avoid this hotel like the plague!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I stayed here for 3 days basically after a break up to help clear my head.  First its an old dated property, which I could handle except for the staff.  Rude.  Hateful.  Unprofessional.My last morning there I was rushed to the ER and in for emergency surgery that afternoon.  I made a call and explained myself to the hateful young woman on the phone and asked if I could extend my stay at the same rate, which granted is much lower than a normal person sees, OR if she couldn't, please gather my belongs and hold them for me at the front desk since I was near death.  She put me on hold, came back on and said she wouldn't or couldn't gather my personal items in the room and my only option was to charge me a full rate for another night?  A $200 dollar room, charge, larceny basically since I never touch that day.  I sent a friend to collect my things that next evening.  The same woman tried to charge HIM for a night or she wasn't going to give access to the room and my suitcase, laptop  He convinced her not to thank goodness.  I have NEVER in all my travels, ever experienced such a selfish, uncaring staff who did what they did without any consideration for the guest.  Avoid this hotel like the plague!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r239711703-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>239711703</t>
+  </si>
+  <si>
+    <t>11/13/2014</t>
+  </si>
+  <si>
+    <t>Always Super!</t>
+  </si>
+  <si>
+    <t>Having annual appointments at MD Anderson, I just reserved our room at this property once again. I was shocked to see such negative reviews as I completely disagree with them. We have stayed here each time we have been in Houston for appointment and never been disappointed. Staff is gracious, rooms are large and very nice/clean, evening drinks/snacks are wonderful. We love the layout of the Inn plus the location next to the grocery store and walking distance to a variety of restaurants. The shuttle to the hospital has always been on time provided one acquaints themselves with the schedule. I have utilized the pool, basketball court and availed myself of the exercise room at the Marriot next door. This is the only place to stay as far as we are concerned.  Yes-always super and always staying here!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Having annual appointments at MD Anderson, I just reserved our room at this property once again. I was shocked to see such negative reviews as I completely disagree with them. We have stayed here each time we have been in Houston for appointment and never been disappointed. Staff is gracious, rooms are large and very nice/clean, evening drinks/snacks are wonderful. We love the layout of the Inn plus the location next to the grocery store and walking distance to a variety of restaurants. The shuttle to the hospital has always been on time provided one acquaints themselves with the schedule. I have utilized the pool, basketball court and availed myself of the exercise room at the Marriot next door. This is the only place to stay as far as we are concerned.  Yes-always super and always staying here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r234216301-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>234216301</t>
+  </si>
+  <si>
+    <t>10/13/2014</t>
+  </si>
+  <si>
+    <t>Will never stay again</t>
+  </si>
+  <si>
+    <t>First off, all the rooms have an outside entry; feels more like a motel than a hotel. The first room I was put in was a loft and did not feel safe at all. It was in the back of the hotel, poorly lit parking, and upstairs. When I went into the room I felt a little "creeped out"...I travel for business every week and have never felt this uncomfortable in a room. I called the front desk and although I was told they were sold out &amp; that's why I received an "upgrade", they did have a handicap accessible room available.  Went to that room and it smelled of mold and cigarettes.  Quickly did a search for an entirely new hotel in Houston and unfortunately all hotels in my search were sold out for the night, so staying at least one night here. Rooms are old and seem unkempt. I will not stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>First off, all the rooms have an outside entry; feels more like a motel than a hotel. The first room I was put in was a loft and did not feel safe at all. It was in the back of the hotel, poorly lit parking, and upstairs. When I went into the room I felt a little "creeped out"...I travel for business every week and have never felt this uncomfortable in a room. I called the front desk and although I was told they were sold out &amp; that's why I received an "upgrade", they did have a handicap accessible room available.  Went to that room and it smelled of mold and cigarettes.  Quickly did a search for an entirely new hotel in Houston and unfortunately all hotels in my search were sold out for the night, so staying at least one night here. Rooms are old and seem unkempt. I will not stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r228912727-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>228912727</t>
+  </si>
+  <si>
+    <t>09/14/2014</t>
+  </si>
+  <si>
+    <t>Worst Marriott Ever - Unfriendly rude front desk</t>
+  </si>
+  <si>
+    <t>The front desk was enough to make is head next door to the Marriott Courtyard. We have never had such a bad, rude, cold, unfriendly reception at a Marriott front desk. Stay away.We asked to see a room and that was a problem for the sad person who looked miserable at the front desk.The room was almost in an alley between a Kroger and a Liquor store and smelled like a smoking room at a bar.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r228525122-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>228525122</t>
+  </si>
+  <si>
+    <t>09/12/2014</t>
+  </si>
+  <si>
+    <t>Too many issues</t>
+  </si>
+  <si>
+    <t>I travel regularly for business and frequently stay in Marriott brand hotels, usually with a positive experience. That was not the case on this occasion.Property is located about 1.3 miles from the Texas Medical Center and a good number of guests appear to have business in the medical center. A capable shuttle service is therefore critical. On 3 separate occasions I requested a pickup and was made to wait 45 minutes or more when I had been told it would be 5-10 minutes. The front desk seems to have little influence on what the shuttle driver does. Would have happily walked back to the hotel (in 90 degree heat) if someone had just told me it would be that long.The property itself was fine- nice pool that several families seemed to  enjoy. Decent breakfast.The rooms are in need of updating but that alone would not be a problem for me. The first room I was given had a significant issue with roaches- kitchen, bathroom, handwashing area. Unacceptable. The staff kindly relocated me after this became apparent. The new room was thankfully free of roaches but didn't seem to be able to generate anything beyond lukewarm water.I would not stay here again nor would I recommend it to anyone. The number of problems I encountered suggest a property management issue, not just bad luck.MoreShow less</t>
+  </si>
+  <si>
+    <t>I travel regularly for business and frequently stay in Marriott brand hotels, usually with a positive experience. That was not the case on this occasion.Property is located about 1.3 miles from the Texas Medical Center and a good number of guests appear to have business in the medical center. A capable shuttle service is therefore critical. On 3 separate occasions I requested a pickup and was made to wait 45 minutes or more when I had been told it would be 5-10 minutes. The front desk seems to have little influence on what the shuttle driver does. Would have happily walked back to the hotel (in 90 degree heat) if someone had just told me it would be that long.The property itself was fine- nice pool that several families seemed to  enjoy. Decent breakfast.The rooms are in need of updating but that alone would not be a problem for me. The first room I was given had a significant issue with roaches- kitchen, bathroom, handwashing area. Unacceptable. The staff kindly relocated me after this became apparent. The new room was thankfully free of roaches but didn't seem to be able to generate anything beyond lukewarm water.I would not stay here again nor would I recommend it to anyone. The number of problems I encountered suggest a property management issue, not just bad luck.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r219874741-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>219874741</t>
+  </si>
+  <si>
+    <t>08/05/2014</t>
+  </si>
+  <si>
+    <t>I thought the hotel was a little lacking for the price.</t>
+  </si>
+  <si>
+    <t>This is not the nicest Residence Inn that I have stayed. The place was showing its age in my opinion. The unit was clean and neat. The refrigerators ice machine was not working. I called for service and the man said the water line was not connected. He took the time and put in a new line and solved the problem. I guess my biggest complaint is the gutters on the side of the buildings. When you walk from the parking lot to your room expect to try and dodge water overflowing some of the gutters at least the one that hit me with the dripping water and that was an hour after the rain had stopped. The breakfast bar was terrific and the personnel were all very nice and friendly at the hotel. Oh one last item, our unit had a deck right above our entrance door and if it is raining, the water hitting the deck will fall right on you as you are entering or leaving your unit. I used the laundry that had 5 washers and 5 dryers near the lobby area and the ones I used worked fine. The half hour shuttles to the area hospitals was also, a plus.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>This is not the nicest Residence Inn that I have stayed. The place was showing its age in my opinion. The unit was clean and neat. The refrigerators ice machine was not working. I called for service and the man said the water line was not connected. He took the time and put in a new line and solved the problem. I guess my biggest complaint is the gutters on the side of the buildings. When you walk from the parking lot to your room expect to try and dodge water overflowing some of the gutters at least the one that hit me with the dripping water and that was an hour after the rain had stopped. The breakfast bar was terrific and the personnel were all very nice and friendly at the hotel. Oh one last item, our unit had a deck right above our entrance door and if it is raining, the water hitting the deck will fall right on you as you are entering or leaving your unit. I used the laundry that had 5 washers and 5 dryers near the lobby area and the ones I used worked fine. The half hour shuttles to the area hospitals was also, a plus.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r215353725-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>215353725</t>
+  </si>
+  <si>
+    <t>07/14/2014</t>
+  </si>
+  <si>
+    <t>Great location, comfortable rooms and decent breakfast</t>
+  </si>
+  <si>
+    <t>We try to stay at the Marriott's Residence Inns whenever we travel and were pleasantly surprised to find one near the MD Anderson Cancer Center.  Within the complimentary shuttle bus range, this Residence Inn offers an apartment style stay.  The location is great for access to all the major medical facilities within the Texas Medical Center as well as the Museum District.  The shuttle bus runs about every half hour during the week until 8-9 p.m.  On the weekends the schedule is more "on demand" but has met all of our needs including taking us to a church within the two-mile radius.The room is spacious, modern and has a kitchenette stocked with glassware, dinnerware, cutlery and pans. My only complaint is the size of the bed.  Evidently, all the beds are queen size and there are no king size beds.  The TV is a modern flat screen one.  It appears that all the rooms have fireplaces but since we were here in July, we did not use it.  The Residence Inn has a nicely maintained pool but the jacuzzi was not operating during our stay.  This hotel is pet friendly and there appeared to be green spaces for the dogs.  Since the hotel is only a block away from the Braeswood Blvd. and the Bayou Canal, there are ample places to go for long walks with your dogs.MoreShow less</t>
+  </si>
+  <si>
+    <t>We try to stay at the Marriott's Residence Inns whenever we travel and were pleasantly surprised to find one near the MD Anderson Cancer Center.  Within the complimentary shuttle bus range, this Residence Inn offers an apartment style stay.  The location is great for access to all the major medical facilities within the Texas Medical Center as well as the Museum District.  The shuttle bus runs about every half hour during the week until 8-9 p.m.  On the weekends the schedule is more "on demand" but has met all of our needs including taking us to a church within the two-mile radius.The room is spacious, modern and has a kitchenette stocked with glassware, dinnerware, cutlery and pans. My only complaint is the size of the bed.  Evidently, all the beds are queen size and there are no king size beds.  The TV is a modern flat screen one.  It appears that all the rooms have fireplaces but since we were here in July, we did not use it.  The Residence Inn has a nicely maintained pool but the jacuzzi was not operating during our stay.  This hotel is pet friendly and there appeared to be green spaces for the dogs.  Since the hotel is only a block away from the Braeswood Blvd. and the Bayou Canal, there are ample places to go for long walks with your dogs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r211288702-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>211288702</t>
+  </si>
+  <si>
+    <t>06/20/2014</t>
+  </si>
+  <si>
+    <t>Nice stay a bit outdated</t>
+  </si>
+  <si>
+    <t>Traveling here to visit friends in the Houston area we wanted safety and access to the interstate system. We arrived late at night and although the hotel was full the clerk was nice and moved us to a ground floor unit in Building 5. The unit was a handicapped accessible unit which was a plus since I didn't specify accessible room but use them regularly as my wife is physically handicapped. The only drawback I found with the place was the bugs and creepy crawlies. A bunch of silverfish and a small roach came through the bathroom. Other than that the beds were comfortable and the stay was pleasant. I was a bit alarmed by the one reviewers concern for safety. But I felt safe and secure. I guess it's one perception of things.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Traveling here to visit friends in the Houston area we wanted safety and access to the interstate system. We arrived late at night and although the hotel was full the clerk was nice and moved us to a ground floor unit in Building 5. The unit was a handicapped accessible unit which was a plus since I didn't specify accessible room but use them regularly as my wife is physically handicapped. The only drawback I found with the place was the bugs and creepy crawlies. A bunch of silverfish and a small roach came through the bathroom. Other than that the beds were comfortable and the stay was pleasant. I was a bit alarmed by the one reviewers concern for safety. But I felt safe and secure. I guess it's one perception of things.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r201717196-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>201717196</t>
+  </si>
+  <si>
+    <t>04/18/2014</t>
+  </si>
+  <si>
+    <t>Feared for my safety...</t>
+  </si>
+  <si>
+    <t>I love Residence Inns. I lived at one for 4 months when renovating our house and always stay at them when on the road. I was mortified when I pulled up to this particular location.It must have been an apartment complex at a certain point in its past. The "rooms" are layed out in an apt complex style manner with individual entrances and "patios." My room was on the bottom floor facing a huge Kroger parking lot. The sliding glass door that opened onto the parking lot immediately scared me. People were walking by within a few feet of my room and I knew that I would never be able to sleep there... Long story short, the staff understood my fears (young, single female traveling alone, would be leaving early in the morning and returning late at night from work) and helped me move over to the Courtyard by Marriott next door.I wish the hotel would have advertised the layout more specifically when booking. The staff was nice. The rooms were outdated though.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>I love Residence Inns. I lived at one for 4 months when renovating our house and always stay at them when on the road. I was mortified when I pulled up to this particular location.It must have been an apartment complex at a certain point in its past. The "rooms" are layed out in an apt complex style manner with individual entrances and "patios." My room was on the bottom floor facing a huge Kroger parking lot. The sliding glass door that opened onto the parking lot immediately scared me. People were walking by within a few feet of my room and I knew that I would never be able to sleep there... Long story short, the staff understood my fears (young, single female traveling alone, would be leaving early in the morning and returning late at night from work) and helped me move over to the Courtyard by Marriott next door.I wish the hotel would have advertised the layout more specifically when booking. The staff was nice. The rooms were outdated though.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r190655947-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>190655947</t>
+  </si>
+  <si>
+    <t>01/12/2014</t>
+  </si>
+  <si>
+    <t>Nice Hotel Near the Medical Center</t>
+  </si>
+  <si>
+    <t>I stayed here for a business trip recently. The room was very nice and clean.  The quality of the room was also a nice surprise, with stainless appliances, solid surface counters, a fireplace, and comfortable bed. Staff were also very friendly and helpful.  They did have evening happy hours, which was nice.  Breakfast was just OK, though. This would be a nice place for someone to stay over the course of several days, if needed.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r188052125-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>188052125</t>
+  </si>
+  <si>
+    <t>12/19/2013</t>
+  </si>
+  <si>
+    <t>Thank You</t>
+  </si>
+  <si>
+    <t>Whenever we travel we always try to make our reservations at a Marriott owned property.  We can rely on the cleanliness and bed comfort which are both issues at the top of our list.  I am frequently in Houston, Texas for medical issues regarding my son.  These stays are never by choice and are often overshadowed with stress and a hurried schedule.  This visit was the same but also involved a medical emergency with my father-in-law.  The hassle free booking process, GOOD breakfast in the mornings and the comfortable settings all go a long way to ease some of the mind numbing issues we are dealing with.  The girls at the counter at the time I checked in could not have been sweeter.  The two very amazing young men that handled my checkout several days later were fantastic.  Through my tears and emotional melt down they helped me book our room for Christmas. They gave me the managers business card and assured me they were simply a phone call away if I needed any additional dates.  We frequent both this Residence Inn and the Spring Hill Inn and suites a few blocks away.  We could not be more pleased at the quality and caliber of employees we have come into contact with at both of these locations.  It is obvious to me that Marriott simply hires the best and we are very thankful!  Your compassion and understanding the emotional mess...Whenever we travel we always try to make our reservations at a Marriott owned property.  We can rely on the cleanliness and bed comfort which are both issues at the top of our list.  I am frequently in Houston, Texas for medical issues regarding my son.  These stays are never by choice and are often overshadowed with stress and a hurried schedule.  This visit was the same but also involved a medical emergency with my father-in-law.  The hassle free booking process, GOOD breakfast in the mornings and the comfortable settings all go a long way to ease some of the mind numbing issues we are dealing with.  The girls at the counter at the time I checked in could not have been sweeter.  The two very amazing young men that handled my checkout several days later were fantastic.  Through my tears and emotional melt down they helped me book our room for Christmas. They gave me the managers business card and assured me they were simply a phone call away if I needed any additional dates.  We frequent both this Residence Inn and the Spring Hill Inn and suites a few blocks away.  We could not be more pleased at the quality and caliber of employees we have come into contact with at both of these locations.  It is obvious to me that Marriott simply hires the best and we are very thankful!  Your compassion and understanding the emotional mess I was in touched my heart! We also really appreciated the shuttle service into the Med Center. This saved us crazy hospital parking fees and without long wait times for the shuttles this service was a GOD SEND!MoreShow less</t>
+  </si>
+  <si>
+    <t>Whenever we travel we always try to make our reservations at a Marriott owned property.  We can rely on the cleanliness and bed comfort which are both issues at the top of our list.  I am frequently in Houston, Texas for medical issues regarding my son.  These stays are never by choice and are often overshadowed with stress and a hurried schedule.  This visit was the same but also involved a medical emergency with my father-in-law.  The hassle free booking process, GOOD breakfast in the mornings and the comfortable settings all go a long way to ease some of the mind numbing issues we are dealing with.  The girls at the counter at the time I checked in could not have been sweeter.  The two very amazing young men that handled my checkout several days later were fantastic.  Through my tears and emotional melt down they helped me book our room for Christmas. They gave me the managers business card and assured me they were simply a phone call away if I needed any additional dates.  We frequent both this Residence Inn and the Spring Hill Inn and suites a few blocks away.  We could not be more pleased at the quality and caliber of employees we have come into contact with at both of these locations.  It is obvious to me that Marriott simply hires the best and we are very thankful!  Your compassion and understanding the emotional mess...Whenever we travel we always try to make our reservations at a Marriott owned property.  We can rely on the cleanliness and bed comfort which are both issues at the top of our list.  I am frequently in Houston, Texas for medical issues regarding my son.  These stays are never by choice and are often overshadowed with stress and a hurried schedule.  This visit was the same but also involved a medical emergency with my father-in-law.  The hassle free booking process, GOOD breakfast in the mornings and the comfortable settings all go a long way to ease some of the mind numbing issues we are dealing with.  The girls at the counter at the time I checked in could not have been sweeter.  The two very amazing young men that handled my checkout several days later were fantastic.  Through my tears and emotional melt down they helped me book our room for Christmas. They gave me the managers business card and assured me they were simply a phone call away if I needed any additional dates.  We frequent both this Residence Inn and the Spring Hill Inn and suites a few blocks away.  We could not be more pleased at the quality and caliber of employees we have come into contact with at both of these locations.  It is obvious to me that Marriott simply hires the best and we are very thankful!  Your compassion and understanding the emotional mess I was in touched my heart! We also really appreciated the shuttle service into the Med Center. This saved us crazy hospital parking fees and without long wait times for the shuttles this service was a GOD SEND!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r178020363-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>178020363</t>
+  </si>
+  <si>
+    <t>09/21/2013</t>
+  </si>
+  <si>
+    <t>Does not live up to the Marriott brand name!</t>
+  </si>
+  <si>
+    <t>I travel regularly for business. I  choose the Marriott chain for pretty much most of my stays. This has probably been the worst Marriott hotel. The room had a strange odor to it. There were bugs in the bathtub. The couch did not look clean. Most of the TV channels were not clear. The internet did not work for most of the time. When I complained they put me onto their support team who were not able to solve the problem. I was supposed to be staying there for 5 nights. I decided to check out a day earlier because the Hyatt regency in downtown Houston was giving me a better deal. To my surprise, while checking out i realized that they had hiked up my rates. My rates went up by $30 for each night. They said this is because the rate i originally had was for 5 nights. They were not willing to be flexible on this. Overall a forgettable experience. I would not recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>I travel regularly for business. I  choose the Marriott chain for pretty much most of my stays. This has probably been the worst Marriott hotel. The room had a strange odor to it. There were bugs in the bathtub. The couch did not look clean. Most of the TV channels were not clear. The internet did not work for most of the time. When I complained they put me onto their support team who were not able to solve the problem. I was supposed to be staying there for 5 nights. I decided to check out a day earlier because the Hyatt regency in downtown Houston was giving me a better deal. To my surprise, while checking out i realized that they had hiked up my rates. My rates went up by $30 for each night. They said this is because the rate i originally had was for 5 nights. They were not willing to be flexible on this. Overall a forgettable experience. I would not recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r178018129-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>178018129</t>
+  </si>
+  <si>
+    <t>Great place...Close to Medical Center</t>
+  </si>
+  <si>
+    <t>We spent a week here and were highly pleased. Service and staff attitude could not be any better.  Transportation to and from medical center every half hour was always on time...exceptional customer service.Breakfast is included and is the best I have ever seen anywhere. Different menu every day and quite good as well!  Also, there is a Kroger grocery store next door.I highly recommend this hotel. I cannot think of anything to improve it.</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r175354617-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>175354617</t>
+  </si>
+  <si>
+    <t>09/02/2013</t>
+  </si>
+  <si>
+    <t>Residence Inn Medical Center Houston, TX</t>
+  </si>
+  <si>
+    <t>Very clean and comfortable.  Close to the Medical Center.  Breakfast and evening happy hour were outstanding.  The Residence Inn staff were always willing to help with directions and places to eat.  We like to stay at Marriott properties and the majority of the time choose the Residence Inn.  We like the kitchen and all the amenities they provide with the room.  Also, the Inn is next door to the Kroger's supermarket just a quarter block away.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r168921458-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>168921458</t>
+  </si>
+  <si>
+    <t>07/24/2013</t>
+  </si>
+  <si>
+    <t>Great Stay as Usual in Residence Inn</t>
+  </si>
+  <si>
+    <t>I had a 1 night stop in Houston and decided to go to Residence Inn.  I have never been wrong in this choice.  This was very nice and clean....next door to Kroger, Restaurants not even 1/2 mile, Reliant Stadium walking distance.  Great variety for breakfast and I could tell everyone enjoyed it...taking food out to their rooms.  The variety was very complete, better than Hampton Inn and I always thought they had the best breakfast.I would definitely recommend to anyone to put their money in a spacious room instead of those chopped off Sheratons, Hilton, etc.  You only give them your money...and they give you nothing in return but a "long....long bill".MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>I had a 1 night stop in Houston and decided to go to Residence Inn.  I have never been wrong in this choice.  This was very nice and clean....next door to Kroger, Restaurants not even 1/2 mile, Reliant Stadium walking distance.  Great variety for breakfast and I could tell everyone enjoyed it...taking food out to their rooms.  The variety was very complete, better than Hampton Inn and I always thought they had the best breakfast.I would definitely recommend to anyone to put their money in a spacious room instead of those chopped off Sheratons, Hilton, etc.  You only give them your money...and they give you nothing in return but a "long....long bill".More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r168856884-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>168856884</t>
+  </si>
+  <si>
+    <t>Less than the Marriott expectation</t>
+  </si>
+  <si>
+    <t>We checked in on Saturday evening and checked out on Monday morning. I am a Marriott reward member and Marriott is my first choice for hotel stays. First off I'd like to say the staff were great and especially the breakfast staff! Very friendly. The room I stayed in 1713 (bldg. 17) was very outdated popcorn ceilings, furniture beat up to include all cabinets, kitchen and bathroom. The bathroom was not very clean as I had found spider webs in the corner Along the baseboard. Defiantly not the typical Marriott level and feel. This particular Residence Inn needed attention outside as well. The buildings facing the parking lot was just painted over with old curling splintered side, the basketball court fence is in disrepair and bent and curls in right at the bottom of goal post. Garbage cans outside almost every building that some overflowing and not very appealing and smells bad outside the door. The jacuzzi was not working and the sign at the front desk seemed to be for sometime. The lobby was the only area that seemed to be renovated and good. Security seemed lacking as both gates didn't close and the 1 guard I saw sat in a chair in the corner. The rate was cheaper than most area hotels and I see why. I would not stay again or recommend and very disappointed at this Marriott Residence Inn level of upkeep. Come on Marriott!MoreShow less</t>
+  </si>
+  <si>
+    <t>We checked in on Saturday evening and checked out on Monday morning. I am a Marriott reward member and Marriott is my first choice for hotel stays. First off I'd like to say the staff were great and especially the breakfast staff! Very friendly. The room I stayed in 1713 (bldg. 17) was very outdated popcorn ceilings, furniture beat up to include all cabinets, kitchen and bathroom. The bathroom was not very clean as I had found spider webs in the corner Along the baseboard. Defiantly not the typical Marriott level and feel. This particular Residence Inn needed attention outside as well. The buildings facing the parking lot was just painted over with old curling splintered side, the basketball court fence is in disrepair and bent and curls in right at the bottom of goal post. Garbage cans outside almost every building that some overflowing and not very appealing and smells bad outside the door. The jacuzzi was not working and the sign at the front desk seemed to be for sometime. The lobby was the only area that seemed to be renovated and good. Security seemed lacking as both gates didn't close and the 1 guard I saw sat in a chair in the corner. The rate was cheaper than most area hotels and I see why. I would not stay again or recommend and very disappointed at this Marriott Residence Inn level of upkeep. Come on Marriott!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r167455885-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>167455885</t>
+  </si>
+  <si>
+    <t>07/13/2013</t>
+  </si>
+  <si>
+    <t>Solid hotel for business travel</t>
+  </si>
+  <si>
+    <t>Solid Residence Inn - had a second floor suite in a two-floor Inn, so no noise issues from above (and I tried to tread softly for the people below).  Wireless internet service was superb - high speed enabled me to work from the room quite effectively.  Location was good - next door to a Kroger's, with a gate keyed to our room keys to move back and forth securely.  Property was also nice - clean, easy to walk (though the Houston July weather didn't make it a lot of fun, no fault of the property).  Breakfast was good - ham or sausage, eggs, potatoes, cereal, fruit, etc. - a pretty broad selection of pastries as well.  This Residence Inn exceeded expectations in its staff - everyone there made a point of saying hello and making sure I had everything I needed.  I was in town for a convention downtown, so the only downside was the $20 cab ride to and from downtown.MoreShow less</t>
+  </si>
+  <si>
+    <t>Solid Residence Inn - had a second floor suite in a two-floor Inn, so no noise issues from above (and I tried to tread softly for the people below).  Wireless internet service was superb - high speed enabled me to work from the room quite effectively.  Location was good - next door to a Kroger's, with a gate keyed to our room keys to move back and forth securely.  Property was also nice - clean, easy to walk (though the Houston July weather didn't make it a lot of fun, no fault of the property).  Breakfast was good - ham or sausage, eggs, potatoes, cereal, fruit, etc. - a pretty broad selection of pastries as well.  This Residence Inn exceeded expectations in its staff - everyone there made a point of saying hello and making sure I had everything I needed.  I was in town for a convention downtown, so the only downside was the $20 cab ride to and from downtown.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r165093319-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>165093319</t>
+  </si>
+  <si>
+    <t>06/24/2013</t>
+  </si>
+  <si>
+    <t>Similar to Apartment Living</t>
+  </si>
+  <si>
+    <t>Pros: Friendly service, homely, comfortable, good complimentary continental breakfast, clean/regular housekeeping, nice clean pool, outdoor recreational area, easy walking access to Kroger grocery store right next door), good location to Medical Plaza with reliable shuttle service, updated appliances (big flat screen tv!).
+Cons: Priced too high, large garbage cans located right outside of room and smell, Wi-Fi service slow and choppy, no indoor gym on premises, parking not ideal
+Overall, this place had what we needed for an extended stay (one week +). It gave us more of an apartment feel than a cramped hotel feel. The staff are very friendly as is the shuttle service. The location is very convenient to the Medical Plaza, Kroger grocery store, fast food restaurants, and only about 10 minutes from Rice Village (nice shopping and dining). Regular housekeeping keeps things clean, and the pool is always clean and relaxing.
+The hotel is priced about the same as others in the area, which are all a little expensive in my opinion for something that meets the basic needs of a hotel (non-luxury). Deals are available for extended stays, however. The biggest inconvenience for me is the absence of an indoor fitness facility - they say they are building their own - and if you think you can walk next door and use the Courtyard Marriott's facility, you are mistaken. Residence Inn guests must drive about 5 minutes to the Springhill Suites Marriott to use...Pros: Friendly service, homely, comfortable, good complimentary continental breakfast, clean/regular housekeeping, nice clean pool, outdoor recreational area, easy walking access to Kroger grocery store right next door), good location to Medical Plaza with reliable shuttle service, updated appliances (big flat screen tv!).Cons: Priced too high, large garbage cans located right outside of room and smell, Wi-Fi service slow and choppy, no indoor gym on premises, parking not idealOverall, this place had what we needed for an extended stay (one week +). It gave us more of an apartment feel than a cramped hotel feel. The staff are very friendly as is the shuttle service. The location is very convenient to the Medical Plaza, Kroger grocery store, fast food restaurants, and only about 10 minutes from Rice Village (nice shopping and dining). Regular housekeeping keeps things clean, and the pool is always clean and relaxing.The hotel is priced about the same as others in the area, which are all a little expensive in my opinion for something that meets the basic needs of a hotel (non-luxury). Deals are available for extended stays, however. The biggest inconvenience for me is the absence of an indoor fitness facility - they say they are building their own - and if you think you can walk next door and use the Courtyard Marriott's facility, you are mistaken. Residence Inn guests must drive about 5 minutes to the Springhill Suites Marriott to use theirs.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Pros: Friendly service, homely, comfortable, good complimentary continental breakfast, clean/regular housekeeping, nice clean pool, outdoor recreational area, easy walking access to Kroger grocery store right next door), good location to Medical Plaza with reliable shuttle service, updated appliances (big flat screen tv!).
+Cons: Priced too high, large garbage cans located right outside of room and smell, Wi-Fi service slow and choppy, no indoor gym on premises, parking not ideal
+Overall, this place had what we needed for an extended stay (one week +). It gave us more of an apartment feel than a cramped hotel feel. The staff are very friendly as is the shuttle service. The location is very convenient to the Medical Plaza, Kroger grocery store, fast food restaurants, and only about 10 minutes from Rice Village (nice shopping and dining). Regular housekeeping keeps things clean, and the pool is always clean and relaxing.
+The hotel is priced about the same as others in the area, which are all a little expensive in my opinion for something that meets the basic needs of a hotel (non-luxury). Deals are available for extended stays, however. The biggest inconvenience for me is the absence of an indoor fitness facility - they say they are building their own - and if you think you can walk next door and use the Courtyard Marriott's facility, you are mistaken. Residence Inn guests must drive about 5 minutes to the Springhill Suites Marriott to use...Pros: Friendly service, homely, comfortable, good complimentary continental breakfast, clean/regular housekeeping, nice clean pool, outdoor recreational area, easy walking access to Kroger grocery store right next door), good location to Medical Plaza with reliable shuttle service, updated appliances (big flat screen tv!).Cons: Priced too high, large garbage cans located right outside of room and smell, Wi-Fi service slow and choppy, no indoor gym on premises, parking not idealOverall, this place had what we needed for an extended stay (one week +). It gave us more of an apartment feel than a cramped hotel feel. The staff are very friendly as is the shuttle service. The location is very convenient to the Medical Plaza, Kroger grocery store, fast food restaurants, and only about 10 minutes from Rice Village (nice shopping and dining). Regular housekeeping keeps things clean, and the pool is always clean and relaxing.The hotel is priced about the same as others in the area, which are all a little expensive in my opinion for something that meets the basic needs of a hotel (non-luxury). Deals are available for extended stays, however. The biggest inconvenience for me is the absence of an indoor fitness facility - they say they are building their own - and if you think you can walk next door and use the Courtyard Marriott's facility, you are mistaken. Residence Inn guests must drive about 5 minutes to the Springhill Suites Marriott to use theirs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r164744474-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>164744474</t>
+  </si>
+  <si>
+    <t>06/21/2013</t>
+  </si>
+  <si>
+    <t>Overpriced older property with cleanliness/security issues</t>
+  </si>
+  <si>
+    <t>This is an overpriced older property with cleanliness and security issues.  
+Upon first arriving at the hotel, I noticed that anyone can walk through the property.  There were quite a few quesitonable characters walking or driving slowly through over the next few days of my stay.  One such character followed my co-worker from the pool to her room (I watched and hopped up when he knocked on her door) under the guise of asking for a cigarette.  We immediately reported it to the front desk who stated they would beef up security.  I did not see any security that night, but did see a security presense the next few nights.  Because there was a conference in town, the prices were completely outrageous ($400+ per night) and other hotels were booked or even priceier - therefore we had no choice but to stay...
+Upon entering my room, there was always musty smell being covered by an air freshener.  Everything in the room felt damp. It is humid in Houston, but I believe the cause of the dampness was that there was a good half inch between the top of my door and the outside. I can see daylight when the door is shut.  Also, though I never saw a bug (except one small spider), I did feel that there was something making me itch.  I never had bites, but two of my co-workers did and reported it to the hotel and...This is an overpriced older property with cleanliness and security issues.  Upon first arriving at the hotel, I noticed that anyone can walk through the property.  There were quite a few quesitonable characters walking or driving slowly through over the next few days of my stay.  One such character followed my co-worker from the pool to her room (I watched and hopped up when he knocked on her door) under the guise of asking for a cigarette.  We immediately reported it to the front desk who stated they would beef up security.  I did not see any security that night, but did see a security presense the next few nights.  Because there was a conference in town, the prices were completely outrageous ($400+ per night) and other hotels were booked or even priceier - therefore we had no choice but to stay...Upon entering my room, there was always musty smell being covered by an air freshener.  Everything in the room felt damp. It is humid in Houston, but I believe the cause of the dampness was that there was a good half inch between the top of my door and the outside. I can see daylight when the door is shut.  Also, though I never saw a bug (except one small spider), I did feel that there was something making me itch.  I never had bites, but two of my co-workers did and reported it to the hotel and Marriott Corporate for investigation.   Also, bring your breakfast coupon to eat in the mornings - they will make sure you have it.  I haven't had this at other Residence Inn properties (even in large metropolitan areas), but judging by the riff-raff that walk through consistently, I can see why they need to do it.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>This is an overpriced older property with cleanliness and security issues.  
+Upon first arriving at the hotel, I noticed that anyone can walk through the property.  There were quite a few quesitonable characters walking or driving slowly through over the next few days of my stay.  One such character followed my co-worker from the pool to her room (I watched and hopped up when he knocked on her door) under the guise of asking for a cigarette.  We immediately reported it to the front desk who stated they would beef up security.  I did not see any security that night, but did see a security presense the next few nights.  Because there was a conference in town, the prices were completely outrageous ($400+ per night) and other hotels were booked or even priceier - therefore we had no choice but to stay...
+Upon entering my room, there was always musty smell being covered by an air freshener.  Everything in the room felt damp. It is humid in Houston, but I believe the cause of the dampness was that there was a good half inch between the top of my door and the outside. I can see daylight when the door is shut.  Also, though I never saw a bug (except one small spider), I did feel that there was something making me itch.  I never had bites, but two of my co-workers did and reported it to the hotel and...This is an overpriced older property with cleanliness and security issues.  Upon first arriving at the hotel, I noticed that anyone can walk through the property.  There were quite a few quesitonable characters walking or driving slowly through over the next few days of my stay.  One such character followed my co-worker from the pool to her room (I watched and hopped up when he knocked on her door) under the guise of asking for a cigarette.  We immediately reported it to the front desk who stated they would beef up security.  I did not see any security that night, but did see a security presense the next few nights.  Because there was a conference in town, the prices were completely outrageous ($400+ per night) and other hotels were booked or even priceier - therefore we had no choice but to stay...Upon entering my room, there was always musty smell being covered by an air freshener.  Everything in the room felt damp. It is humid in Houston, but I believe the cause of the dampness was that there was a good half inch between the top of my door and the outside. I can see daylight when the door is shut.  Also, though I never saw a bug (except one small spider), I did feel that there was something making me itch.  I never had bites, but two of my co-workers did and reported it to the hotel and Marriott Corporate for investigation.   Also, bring your breakfast coupon to eat in the mornings - they will make sure you have it.  I haven't had this at other Residence Inn properties (even in large metropolitan areas), but judging by the riff-raff that walk through consistently, I can see why they need to do it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r162852527-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>162852527</t>
+  </si>
+  <si>
+    <t>06/03/2013</t>
+  </si>
+  <si>
+    <t>Wonderful place to stay!</t>
+  </si>
+  <si>
+    <t>From the moment we checked in, we were impressed with this hotel.  Lincoln, the desk clerk, was so helpful and friendly that it set the tone for the entire stay.  All the other staff members we encountered were equally pleasant.  Our room was clean, spacious and would be a perfect place for a long-term stay - there was a kitchen, 2 closets and lots of drawers in the bathroom.  There is also a grocery store next to the hotel, with a gate between the properties for easy access.  Breakfast was very good, and the seating area had lots of tables.  The location is perfect for not only the Medical Center and Reliant Stadium, but also the Galleria, Downtown, the Heights, etc.MoreShow less</t>
+  </si>
+  <si>
+    <t>From the moment we checked in, we were impressed with this hotel.  Lincoln, the desk clerk, was so helpful and friendly that it set the tone for the entire stay.  All the other staff members we encountered were equally pleasant.  Our room was clean, spacious and would be a perfect place for a long-term stay - there was a kitchen, 2 closets and lots of drawers in the bathroom.  There is also a grocery store next to the hotel, with a gate between the properties for easy access.  Breakfast was very good, and the seating area had lots of tables.  The location is perfect for not only the Medical Center and Reliant Stadium, but also the Galleria, Downtown, the Heights, etc.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r159304375-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>159304375</t>
+  </si>
+  <si>
+    <t>04/30/2013</t>
+  </si>
+  <si>
+    <t>will go back for sure!</t>
+  </si>
+  <si>
+    <t>We stayed in this suites for 2 weeks and really liked it. Friendly staff. The reception is little bet small and not " luxury" but they serve the best breakfast ever!! We stayed in a ground floor suite and ask the reception to move to upper suite due to noise from outside. cleaning was not that good but accaptable. room needs renovation as the bed sheets are a bit old and sofa is over used. the kitchen is much older but works fine. Do not ever miss the breakfast as they serve the best waffles ever :") there is supermarket next to it, five guse, smash burger, taco bell are reachable.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>We stayed in this suites for 2 weeks and really liked it. Friendly staff. The reception is little bet small and not " luxury" but they serve the best breakfast ever!! We stayed in a ground floor suite and ask the reception to move to upper suite due to noise from outside. cleaning was not that good but accaptable. room needs renovation as the bed sheets are a bit old and sofa is over used. the kitchen is much older but works fine. Do not ever miss the breakfast as they serve the best waffles ever :") there is supermarket next to it, five guse, smash burger, taco bell are reachable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r156693571-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>156693571</t>
+  </si>
+  <si>
+    <t>04/05/2013</t>
+  </si>
+  <si>
+    <t>Downhill, Ppy desperately needs update. Staff friendly, food ok, rooms not Marriott std</t>
+  </si>
+  <si>
+    <t>Disappointed. Certainly not the standard we expect from a Marriott chain. The GOOD- the breakfast staff was friendly, good selection of breakfast foods although it was the same entree both mornings, like the fact they had a shuttle to take u anywhere within 2mi distance, eg the houston zoo, museum, dinner was ok not gourmet. The BAD- The rooms look tired, bathroom has vinyl faux tile, ceiling looks like there were was a lot of leaks as it was patched up in several places especially upper bedroom corner n corner of the dining room, no weatherstripping at door so can see daylight thru the door, dirty rugs, dirty Murphy bed, housekeeping was lackluster (missing utensils, no baking pan, didn't do dishes when clearly dirty dishes n dishwasher, didn't replace dishcloth just refolded it, no dish washing liquid).  Rainstorm the two days we were there n the gutters were overflowing or falling off the roof, after storm saw gutter strips on the grass, roof had algae looked like they need a new roof n to fix the gutters, our window in the bedroom was leaking water during the storm. Like I said its close to hospitals n zoo n downtown but really surprised that this was in Marriott family. It's really in need of overhaul Makes me think they r getting ready to sell this ppy or something. It was ok for a couple of days but I wouldn't want to...Disappointed. Certainly not the standard we expect from a Marriott chain. The GOOD- the breakfast staff was friendly, good selection of breakfast foods although it was the same entree both mornings, like the fact they had a shuttle to take u anywhere within 2mi distance, eg the houston zoo, museum, dinner was ok not gourmet. The BAD- The rooms look tired, bathroom has vinyl faux tile, ceiling looks like there were was a lot of leaks as it was patched up in several places especially upper bedroom corner n corner of the dining room, no weatherstripping at door so can see daylight thru the door, dirty rugs, dirty Murphy bed, housekeeping was lackluster (missing utensils, no baking pan, didn't do dishes when clearly dirty dishes n dishwasher, didn't replace dishcloth just refolded it, no dish washing liquid).  Rainstorm the two days we were there n the gutters were overflowing or falling off the roof, after storm saw gutter strips on the grass, roof had algae looked like they need a new roof n to fix the gutters, our window in the bedroom was leaking water during the storm. Like I said its close to hospitals n zoo n downtown but really surprised that this was in Marriott family. It's really in need of overhaul Makes me think they r getting ready to sell this ppy or something. It was ok for a couple of days but I wouldn't want to stay here longer. It's right beside the Krogers so good is close enuf to get groceries, bad is all the noise from there n the hwy.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>Disappointed. Certainly not the standard we expect from a Marriott chain. The GOOD- the breakfast staff was friendly, good selection of breakfast foods although it was the same entree both mornings, like the fact they had a shuttle to take u anywhere within 2mi distance, eg the houston zoo, museum, dinner was ok not gourmet. The BAD- The rooms look tired, bathroom has vinyl faux tile, ceiling looks like there were was a lot of leaks as it was patched up in several places especially upper bedroom corner n corner of the dining room, no weatherstripping at door so can see daylight thru the door, dirty rugs, dirty Murphy bed, housekeeping was lackluster (missing utensils, no baking pan, didn't do dishes when clearly dirty dishes n dishwasher, didn't replace dishcloth just refolded it, no dish washing liquid).  Rainstorm the two days we were there n the gutters were overflowing or falling off the roof, after storm saw gutter strips on the grass, roof had algae looked like they need a new roof n to fix the gutters, our window in the bedroom was leaking water during the storm. Like I said its close to hospitals n zoo n downtown but really surprised that this was in Marriott family. It's really in need of overhaul Makes me think they r getting ready to sell this ppy or something. It was ok for a couple of days but I wouldn't want to...Disappointed. Certainly not the standard we expect from a Marriott chain. The GOOD- the breakfast staff was friendly, good selection of breakfast foods although it was the same entree both mornings, like the fact they had a shuttle to take u anywhere within 2mi distance, eg the houston zoo, museum, dinner was ok not gourmet. The BAD- The rooms look tired, bathroom has vinyl faux tile, ceiling looks like there were was a lot of leaks as it was patched up in several places especially upper bedroom corner n corner of the dining room, no weatherstripping at door so can see daylight thru the door, dirty rugs, dirty Murphy bed, housekeeping was lackluster (missing utensils, no baking pan, didn't do dishes when clearly dirty dishes n dishwasher, didn't replace dishcloth just refolded it, no dish washing liquid).  Rainstorm the two days we were there n the gutters were overflowing or falling off the roof, after storm saw gutter strips on the grass, roof had algae looked like they need a new roof n to fix the gutters, our window in the bedroom was leaking water during the storm. Like I said its close to hospitals n zoo n downtown but really surprised that this was in Marriott family. It's really in need of overhaul Makes me think they r getting ready to sell this ppy or something. It was ok for a couple of days but I wouldn't want to stay here longer. It's right beside the Krogers so good is close enuf to get groceries, bad is all the noise from there n the hwy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r156514713-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>156514713</t>
+  </si>
+  <si>
+    <t>04/03/2013</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>I have a bad back and came into Houston for an appt at Medical Center with spine surgeon, specifically picked out this hotel because of their hot tub, there is one but the water is cold!  Note to management - a hot tub is useless unless the water is HOT, not lukewarm.  I found this hotel old and overpriced, the air/heating was so noisy I had to turn it off to sleep.  Parking was free and close to the room, the bed was comfortable, but otherwise nothing special about the room.  There is a kitchen but they don't provide dishwashing detergent, you have to bring your own.  There is a breakfast buffet, but it was pretty bad.  I don't get the great reviews about this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have a bad back and came into Houston for an appt at Medical Center with spine surgeon, specifically picked out this hotel because of their hot tub, there is one but the water is cold!  Note to management - a hot tub is useless unless the water is HOT, not lukewarm.  I found this hotel old and overpriced, the air/heating was so noisy I had to turn it off to sleep.  Parking was free and close to the room, the bed was comfortable, but otherwise nothing special about the room.  There is a kitchen but they don't provide dishwashing detergent, you have to bring your own.  There is a breakfast buffet, but it was pretty bad.  I don't get the great reviews about this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r150138574-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>150138574</t>
+  </si>
+  <si>
+    <t>01/20/2013</t>
+  </si>
+  <si>
+    <t>We stayed here to be close to Reliant Stadium</t>
+  </si>
+  <si>
+    <t>If you want a nice hotel close to the Reliant or Medical Center you can bet your chances are pretty good with this one. The parking lot was well lit, the rooms had full service kitchens with everything you needed to cook and eat, right next door to a Kroger's so picking up a few items were easy. The breakfast buffet was your usual hotel standard but still nice and "free".  It had plenty to choose from and offered hot and cold items.  The location is perfect and there is a free shuttle to the medical center if you need it.  I would recommend this hotel to anybody for a quick visit or a long stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>If you want a nice hotel close to the Reliant or Medical Center you can bet your chances are pretty good with this one. The parking lot was well lit, the rooms had full service kitchens with everything you needed to cook and eat, right next door to a Kroger's so picking up a few items were easy. The breakfast buffet was your usual hotel standard but still nice and "free".  It had plenty to choose from and offered hot and cold items.  The location is perfect and there is a free shuttle to the medical center if you need it.  I would recommend this hotel to anybody for a quick visit or a long stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r148806228-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>148806228</t>
+  </si>
+  <si>
+    <t>01/04/2013</t>
+  </si>
+  <si>
+    <t>Underwhelmed</t>
+  </si>
+  <si>
+    <t>I wasn't a fan of this hotel.  We stayed here for the recent Bowl Game at Reliant Stadium and it is a lengthly but doable walk.  You can avoid the cost of parking this way.  The hotel it self was seperated like small apartment buildings.  The "suites" were clean, but old.  The kitchen area and bathrooms were clean as well.  I guess for the price of $89 per night, I shouldn't complain, but to be honest I was a little underwhelmed.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r147970154-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>147970154</t>
+  </si>
+  <si>
+    <t>12/23/2012</t>
+  </si>
+  <si>
+    <t>A very nice hotel and conviently located</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I recently stayed at this hotel and was very pleased with the stay. The rooms were nice as well as the service attendants. The only problem i seen was trying to make a turn into the parking lot from main  street but we figured out how to get around that problem. Overall the hotel is a very nice place to stay especially for the price and hot breakfast. I would definitely recommend this hotel. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r137503891-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>137503891</t>
+  </si>
+  <si>
+    <t>08/17/2012</t>
+  </si>
+  <si>
+    <t>Very nice!!</t>
+  </si>
+  <si>
+    <t>Nice hotel, very good location, almost in the heart of the medical center, and right beside a supermarket.The hotel is like a apart hotel where you have some kitchen appliances, so you can cook your own meal.They also have a shuttle around the medical center.I strongly recommend this hotel!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r136122175-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>136122175</t>
+  </si>
+  <si>
+    <t>08/03/2012</t>
+  </si>
+  <si>
+    <t>Another great Inn for Long Term stay</t>
+  </si>
+  <si>
+    <t>This is the 2nd Residence Inn we've stayed at, and we were not disappointed in the least.  Purpose of this trip was a visit to MD Anderson Hospital and this location offers a shuttle to and from the hospital at no cost - every 30 minutes.  Our studio room was clean, well laid out and quiet.  There is a free hot breakfast every day and it was very good.  There is also a snack/wine/beer offered Monday thru Thursday evenings and this was excellent.  The dining area was large and accommodated all who wanted to stay and eat vs. taking food back to the room.  We also took advantage of one of the two bar-b-q pits available by the pool area and did our own grilling one evening.  Right across from the parking lot of Residence Inn is a Kroger grocery.  There is actually a gate between the hotel and the grocery store, and you can use your guest card to access the gate.  Very convenient and secure.  We would definitely stay at this hotel again.  Also note that they accept pets which is another reason why we chose this hotel. over others.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>This is the 2nd Residence Inn we've stayed at, and we were not disappointed in the least.  Purpose of this trip was a visit to MD Anderson Hospital and this location offers a shuttle to and from the hospital at no cost - every 30 minutes.  Our studio room was clean, well laid out and quiet.  There is a free hot breakfast every day and it was very good.  There is also a snack/wine/beer offered Monday thru Thursday evenings and this was excellent.  The dining area was large and accommodated all who wanted to stay and eat vs. taking food back to the room.  We also took advantage of one of the two bar-b-q pits available by the pool area and did our own grilling one evening.  Right across from the parking lot of Residence Inn is a Kroger grocery.  There is actually a gate between the hotel and the grocery store, and you can use your guest card to access the gate.  Very convenient and secure.  We would definitely stay at this hotel again.  Also note that they accept pets which is another reason why we chose this hotel. over others.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r135464322-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>135464322</t>
+  </si>
+  <si>
+    <t>07/26/2012</t>
+  </si>
+  <si>
+    <t>Residence Inn is not for me</t>
+  </si>
+  <si>
+    <t>I arrived around 1pm and the one and only desk person seemed overwelmed although Lincoln had a great smile and sure tried to please all.   After a long journey I just wanted my room.  Well you can call it a room but reminds me of my college dorm days long ago.A sagging bed, walls and furniture in need of repair and just simple basics with poor decor.Well worn inside and in need of a face lift but this was my 2nd recent try at a Residence Inn and probably my last since it is not for me.Small bathrooms and motel style but priced almost same as hotelKitchen was okOverall not bad with some sacrafice in comfort but........MoreShow less</t>
+  </si>
+  <si>
+    <t>I arrived around 1pm and the one and only desk person seemed overwelmed although Lincoln had a great smile and sure tried to please all.   After a long journey I just wanted my room.  Well you can call it a room but reminds me of my college dorm days long ago.A sagging bed, walls and furniture in need of repair and just simple basics with poor decor.Well worn inside and in need of a face lift but this was my 2nd recent try at a Residence Inn and probably my last since it is not for me.Small bathrooms and motel style but priced almost same as hotelKitchen was okOverall not bad with some sacrafice in comfort but........More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r130019731-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>130019731</t>
+  </si>
+  <si>
+    <t>05/15/2012</t>
+  </si>
+  <si>
+    <t>Great staff</t>
+  </si>
+  <si>
+    <t>I enjoyed my recent stay at this hotel.  A bit of a drive to the night life but very close to the stadium and medical center. The staff here were just great.  Nothing was too much to ask.  Managers drinks and snacks early evening were welcome and they had a nice pool area, around which we held a business BBQ.  My colleague and I shared a suite and there was plenty of room.  However, the tiny window made it very dark so I wouldn't want to stay for long.  The Internet was very slow so it made it difficult to use the computer and impossible to stream video.  Overall a good stay for business.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>I enjoyed my recent stay at this hotel.  A bit of a drive to the night life but very close to the stadium and medical center. The staff here were just great.  Nothing was too much to ask.  Managers drinks and snacks early evening were welcome and they had a nice pool area, around which we held a business BBQ.  My colleague and I shared a suite and there was plenty of room.  However, the tiny window made it very dark so I wouldn't want to stay for long.  The Internet was very slow so it made it difficult to use the computer and impossible to stream video.  Overall a good stay for business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r129753993-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>129753993</t>
+  </si>
+  <si>
+    <t>05/11/2012</t>
+  </si>
+  <si>
+    <t>Still trying to figure out if it really was bed bugs!</t>
+  </si>
+  <si>
+    <t>Stayed here for OTC week with my company.  I've stayed at the Courtyard next door in previous years before, although my coworker usually stays at the Residence and prefers it, so to each his own.  However, this place was pretty dumpy, I'd say. It just needs an update bad with lots of stains and dirt in corners of the room.  Plus, as a single girl on this trip it seems not the safest place to stay since there is no lobby to check into when coming in and out and each afternoon when coming home I found myself checking each closet and the sliding doors to make sure I was safe and in the room alone.  Another problem was the first morning of my stay I saw a bug on a towel in the bathroom that was unlike any other I'd seen.  I hoped it was not a bed bug, but didn't have time to look up on my laptop to see if it matched an online picture since I was running out the door for the first day of OTC. I figured I wouldn't bother with it later that night since I didn't have any bites.  LIttle known to me that bed bug bites don't show up on many people for 9-14 days after being bitten...including myself who, now, 12 days after first checking in I'm seeing all kinds of bites around my ankles, arms, and legs.  So, all...Stayed here for OTC week with my company.  I've stayed at the Courtyard next door in previous years before, although my coworker usually stays at the Residence and prefers it, so to each his own.  However, this place was pretty dumpy, I'd say. It just needs an update bad with lots of stains and dirt in corners of the room.  Plus, as a single girl on this trip it seems not the safest place to stay since there is no lobby to check into when coming in and out and each afternoon when coming home I found myself checking each closet and the sliding doors to make sure I was safe and in the room alone.  Another problem was the first morning of my stay I saw a bug on a towel in the bathroom that was unlike any other I'd seen.  I hoped it was not a bed bug, but didn't have time to look up on my laptop to see if it matched an online picture since I was running out the door for the first day of OTC. I figured I wouldn't bother with it later that night since I didn't have any bites.  LIttle known to me that bed bug bites don't show up on many people for 9-14 days after being bitten...including myself who, now, 12 days after first checking in I'm seeing all kinds of bites around my ankles, arms, and legs.  So, all signs point to bed bugs! Not cool.  I called management this morning who was a little too dismissive of this, but I'm hoping for a call back after she looks into it further.  There is someone occupying the room now, so I hope they let this person know. I think this place just needs to be redone or maybe just torn down and rebuilt completely.  It's a good location next door to Kroger and down from Reliant Arena.  I'll stay next year next door again at the Courtyard or another place. By the way, during OTC week they charge a RIDICULOUS amount for this room...like on-par with NYC prices, which isn't right to me.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for OTC week with my company.  I've stayed at the Courtyard next door in previous years before, although my coworker usually stays at the Residence and prefers it, so to each his own.  However, this place was pretty dumpy, I'd say. It just needs an update bad with lots of stains and dirt in corners of the room.  Plus, as a single girl on this trip it seems not the safest place to stay since there is no lobby to check into when coming in and out and each afternoon when coming home I found myself checking each closet and the sliding doors to make sure I was safe and in the room alone.  Another problem was the first morning of my stay I saw a bug on a towel in the bathroom that was unlike any other I'd seen.  I hoped it was not a bed bug, but didn't have time to look up on my laptop to see if it matched an online picture since I was running out the door for the first day of OTC. I figured I wouldn't bother with it later that night since I didn't have any bites.  LIttle known to me that bed bug bites don't show up on many people for 9-14 days after being bitten...including myself who, now, 12 days after first checking in I'm seeing all kinds of bites around my ankles, arms, and legs.  So, all...Stayed here for OTC week with my company.  I've stayed at the Courtyard next door in previous years before, although my coworker usually stays at the Residence and prefers it, so to each his own.  However, this place was pretty dumpy, I'd say. It just needs an update bad with lots of stains and dirt in corners of the room.  Plus, as a single girl on this trip it seems not the safest place to stay since there is no lobby to check into when coming in and out and each afternoon when coming home I found myself checking each closet and the sliding doors to make sure I was safe and in the room alone.  Another problem was the first morning of my stay I saw a bug on a towel in the bathroom that was unlike any other I'd seen.  I hoped it was not a bed bug, but didn't have time to look up on my laptop to see if it matched an online picture since I was running out the door for the first day of OTC. I figured I wouldn't bother with it later that night since I didn't have any bites.  LIttle known to me that bed bug bites don't show up on many people for 9-14 days after being bitten...including myself who, now, 12 days after first checking in I'm seeing all kinds of bites around my ankles, arms, and legs.  So, all signs point to bed bugs! Not cool.  I called management this morning who was a little too dismissive of this, but I'm hoping for a call back after she looks into it further.  There is someone occupying the room now, so I hope they let this person know. I think this place just needs to be redone or maybe just torn down and rebuilt completely.  It's a good location next door to Kroger and down from Reliant Arena.  I'll stay next year next door again at the Courtyard or another place. By the way, during OTC week they charge a RIDICULOUS amount for this room...like on-par with NYC prices, which isn't right to me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r129380933-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>129380933</t>
+  </si>
+  <si>
+    <t>05/04/2012</t>
+  </si>
+  <si>
+    <t>Not what I expected from Marriott!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I usually stay at Marriott or Courtyard when I travel but thought that this Residence Inn (right next to a Courtyard) would be a better value since it cost less. Wrong! The room had an overpowering smell of air freshner, which made me wonder what odor they were trying to cover. The bed was super soft and creaked, pillows smelled bad. Bathroom sink was cracked. I have never been more ready for morning to come so I could end my stay. The only positive I have is the front desk agent, Lincoln. He was very friendly and efficient. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r126243182-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>126243182</t>
+  </si>
+  <si>
+    <t>03/17/2012</t>
+  </si>
+  <si>
+    <t>Skip It!</t>
+  </si>
+  <si>
+    <t>Made a quick trip to Houston in December 2011.  When traveling with the kids, we prefer to stay at a Residence Inn....This property is by far one of the worst properties that I have ever stayed in.  Appears that they are trying to make some upgrades, but just adding granite counters and new sheets doesn't automatically make it nice.  I would describe it as old, outdated and smelly.  The bathroom was so small that my 7 yr old had a hard time getting in and out of the shower.  And, if looking for privacy, our room certainly didn’t have any….two beds, one in living area and one in a loft.  Kids wanted to watch TV and we wanted to sleep…because of the setup, impossible to do both.  Breakfast was ok, but the eating area was so ridiculously small.  Will NOT be staying there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>Made a quick trip to Houston in December 2011.  When traveling with the kids, we prefer to stay at a Residence Inn....This property is by far one of the worst properties that I have ever stayed in.  Appears that they are trying to make some upgrades, but just adding granite counters and new sheets doesn't automatically make it nice.  I would describe it as old, outdated and smelly.  The bathroom was so small that my 7 yr old had a hard time getting in and out of the shower.  And, if looking for privacy, our room certainly didn’t have any….two beds, one in living area and one in a loft.  Kids wanted to watch TV and we wanted to sleep…because of the setup, impossible to do both.  Breakfast was ok, but the eating area was so ridiculously small.  Will NOT be staying there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r126016850-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>126016850</t>
+  </si>
+  <si>
+    <t>03/12/2012</t>
+  </si>
+  <si>
+    <t>Great Location Near Reliant Park &amp; Medical Center</t>
+  </si>
+  <si>
+    <t>The Marriott Residence Inn on South Main will exceed your expectations for service and high quality lodging in the Reliant Park area. I found the room to be excellent for the business traveler. My suite had a full kitchen, dining area, living room area with fireplace, and very comfortable bed with plenty of pillows of differing firmness and size. All this plus a full breakfast buffet every morning for the price of many express or economy hotels! The staff was very friendly and the shuttle service was prompt and always on schedule. Even if you don't use the kitchen it's nice to have a full size fridge with an ice maker so you can visit the grocery store next door pick up some snacks or drinks store not have to pay vending price or go down the hall for ice! The service staff did an excellent job keeping my room very clean end well stocked with towels. Check out the Residence Inn if you need lodging in the Reliant Park area of Houson you'll be glad you did!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>The Marriott Residence Inn on South Main will exceed your expectations for service and high quality lodging in the Reliant Park area. I found the room to be excellent for the business traveler. My suite had a full kitchen, dining area, living room area with fireplace, and very comfortable bed with plenty of pillows of differing firmness and size. All this plus a full breakfast buffet every morning for the price of many express or economy hotels! The staff was very friendly and the shuttle service was prompt and always on schedule. Even if you don't use the kitchen it's nice to have a full size fridge with an ice maker so you can visit the grocery store next door pick up some snacks or drinks store not have to pay vending price or go down the hall for ice! The service staff did an excellent job keeping my room very clean end well stocked with towels. Check out the Residence Inn if you need lodging in the Reliant Park area of Houson you'll be glad you did!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r125191562-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>125191562</t>
+  </si>
+  <si>
+    <t>02/25/2012</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>I read some of the recent reviews and at first was a bit concerned, but I decided to give the property a chance since it was close to MD Anderson.  Our experience was very good.  Both Lincoln and Fitzpatrick who work the front desk were very helpful.  The property layout resembles an apartment complex.  Our room was spacious and clean.  None of the concerns expressed in recent reviews were present.  Not that they didn't happen, but I did not observe that in our room.  It came with a kitchenette which included necessary wares.  Shortly after check in, the manager called to see if everything was in order.  The evening happy hour was good, as was the breakfast that was provided in the morning.MoreShow less</t>
+  </si>
+  <si>
+    <t>I read some of the recent reviews and at first was a bit concerned, but I decided to give the property a chance since it was close to MD Anderson.  Our experience was very good.  Both Lincoln and Fitzpatrick who work the front desk were very helpful.  The property layout resembles an apartment complex.  Our room was spacious and clean.  None of the concerns expressed in recent reviews were present.  Not that they didn't happen, but I did not observe that in our room.  It came with a kitchenette which included necessary wares.  Shortly after check in, the manager called to see if everything was in order.  The evening happy hour was good, as was the breakfast that was provided in the morning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r124458301-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>124458301</t>
+  </si>
+  <si>
+    <t>02/11/2012</t>
+  </si>
+  <si>
+    <t>Not up to standards</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel and checked out the next day because the stay was terrible.  Was upgraded to a 2 bedroom room with an upstairs and downstairs (Marriott Platinum) and walked into a room that was filthy.  The downstairs toilet had brown rings that showed it had not been cleaned properly.  After using the gym next door at the Courtyard, took a shower and while drying off, opened the towel to find blood and snot on the towel.  Not kidding- took a picture on my phone to document this, as this has never happened before.  I called the front desk and had housekeeping replace all the towels and complained to the manager.  Managed to finally get a return phone call where my room was comped.  There are way too many nicer hotels to stay at in the area- I would only stay here if everything else is sold out.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel and checked out the next day because the stay was terrible.  Was upgraded to a 2 bedroom room with an upstairs and downstairs (Marriott Platinum) and walked into a room that was filthy.  The downstairs toilet had brown rings that showed it had not been cleaned properly.  After using the gym next door at the Courtyard, took a shower and while drying off, opened the towel to find blood and snot on the towel.  Not kidding- took a picture on my phone to document this, as this has never happened before.  I called the front desk and had housekeeping replace all the towels and complained to the manager.  Managed to finally get a return phone call where my room was comped.  There are way too many nicer hotels to stay at in the area- I would only stay here if everything else is sold out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r120975882-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>120975882</t>
+  </si>
+  <si>
+    <t>11/23/2011</t>
+  </si>
+  <si>
+    <t>An Average Overnight Stay</t>
+  </si>
+  <si>
+    <t>This Residence Inn has an apartment layout.  Finding my room was quite challenging and can be compared to entering a maze.  Once found, I brewed a fresh pot of coffee but could not find any stir sticks.  The kitchenette had no dishwashing soap which I needed to clean up my coffee spill mess.  The room was average.  I saw no bugs.  Breakfast was average.  On a positive note... this hotel is only minutes to Rice University.  Rice Univ. has an amazingly beautiful campus; hopefully my son gets accepted.  I hear that it's hard to get into Rice Univ. but God has our backs.</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r119445067-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>119445067</t>
+  </si>
+  <si>
+    <t>10/18/2011</t>
+  </si>
+  <si>
+    <t>old and falling apart</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel several times over the last few years.  Each time we have noticed that more things are breaking/broken/falling apart/in general disrepair.  There have been bug problems in the rooms the last couple of times.  This time the doors did not close and there was a broken spring with a small metal ball on the floor by the door which could have been a major choking hazard for our son had we not seen it first.  The beds are hard, creaky, and uncomfortable.  The breakfast is included but not great.  Location and price are OK.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r84901002-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>84901002</t>
+  </si>
+  <si>
+    <t>10/26/2010</t>
+  </si>
+  <si>
+    <t>Great Loacation for MD Anderson and other Medical Center Hospitals.. mixed review</t>
+  </si>
+  <si>
+    <t>For families that need to be close to MD Anderson or other Medical Center Hospitals for a few days or weeks... this is a good option. 
+Very good shuttle service to MD Anderson and other hospitals
+Older facility, but still nice. Rooms are kept very clean, and comfortable...but not fancy. housekeeping is excellent.  I had good WiFi and acceptable cable TV ...but an older inexpensive television set
+They have a fairly nice laundry room.  The free breakfast is OK to good..not great..but not bad. And they do try to vary things a bit.
+Staff was friendly, but not exceptional or professional in terms of hospitality.
+There are 24 hour supermarkets literally next door, many pharmacies, a fair amount of fast food and better restaurants. Reliant stadium in close by.  This is a very good location, and a safe neighborhood...but not so safe that I would leave a GPS in the window, or valuables in the car.
+Management is the major point of criticism. The grounds were poorly maintained, and maintenance and management did a very bad job of cleaning up broken bottles and garbage left by guests or others.  
+Customer service was OK for most things, but when a problem came up...customer service was terrible.
+I would recommend this hotel based on location, location, and the shuttle service , and really die to the fact that it is a Residence Inn and has larger suites and kitchen facilities. If you...For families that need to be close to MD Anderson or other Medical Center Hospitals for a few days or weeks... this is a good option. Very good shuttle service to MD Anderson and other hospitalsOlder facility, but still nice. Rooms are kept very clean, and comfortable...but not fancy. housekeeping is excellent.  I had good WiFi and acceptable cable TV ...but an older inexpensive television setThey have a fairly nice laundry room.  The free breakfast is OK to good..not great..but not bad. And they do try to vary things a bit.Staff was friendly, but not exceptional or professional in terms of hospitality.There are 24 hour supermarkets literally next door, many pharmacies, a fair amount of fast food and better restaurants. Reliant stadium in close by.  This is a very good location, and a safe neighborhood...but not so safe that I would leave a GPS in the window, or valuables in the car.Management is the major point of criticism. The grounds were poorly maintained, and maintenance and management did a very bad job of cleaning up broken bottles and garbage left by guests or others.  Customer service was OK for most things, but when a problem came up...customer service was terrible.I would recommend this hotel based on location, location, and the shuttle service , and really die to the fact that it is a Residence Inn and has larger suites and kitchen facilities. If you need a suite for a family or a kitchen for long term stays.And they do offer a special lower rate for patients. On the same property is a brand new Courtyard Marriott, and that hotel is very nice, pleasant, very well run and professional and great hospitality. I would highly recommend the Courtyard Marriott ...and this is my first choice and suggestion, not the Residence Inn. So 5 stars on location, lukewarm review overall.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2009</t>
+  </si>
+  <si>
+    <t>For families that need to be close to MD Anderson or other Medical Center Hospitals for a few days or weeks... this is a good option. 
+Very good shuttle service to MD Anderson and other hospitals
+Older facility, but still nice. Rooms are kept very clean, and comfortable...but not fancy. housekeeping is excellent.  I had good WiFi and acceptable cable TV ...but an older inexpensive television set
+They have a fairly nice laundry room.  The free breakfast is OK to good..not great..but not bad. And they do try to vary things a bit.
+Staff was friendly, but not exceptional or professional in terms of hospitality.
+There are 24 hour supermarkets literally next door, many pharmacies, a fair amount of fast food and better restaurants. Reliant stadium in close by.  This is a very good location, and a safe neighborhood...but not so safe that I would leave a GPS in the window, or valuables in the car.
+Management is the major point of criticism. The grounds were poorly maintained, and maintenance and management did a very bad job of cleaning up broken bottles and garbage left by guests or others.  
+Customer service was OK for most things, but when a problem came up...customer service was terrible.
+I would recommend this hotel based on location, location, and the shuttle service , and really die to the fact that it is a Residence Inn and has larger suites and kitchen facilities. If you...For families that need to be close to MD Anderson or other Medical Center Hospitals for a few days or weeks... this is a good option. Very good shuttle service to MD Anderson and other hospitalsOlder facility, but still nice. Rooms are kept very clean, and comfortable...but not fancy. housekeeping is excellent.  I had good WiFi and acceptable cable TV ...but an older inexpensive television setThey have a fairly nice laundry room.  The free breakfast is OK to good..not great..but not bad. And they do try to vary things a bit.Staff was friendly, but not exceptional or professional in terms of hospitality.There are 24 hour supermarkets literally next door, many pharmacies, a fair amount of fast food and better restaurants. Reliant stadium in close by.  This is a very good location, and a safe neighborhood...but not so safe that I would leave a GPS in the window, or valuables in the car.Management is the major point of criticism. The grounds were poorly maintained, and maintenance and management did a very bad job of cleaning up broken bottles and garbage left by guests or others.  Customer service was OK for most things, but when a problem came up...customer service was terrible.I would recommend this hotel based on location, location, and the shuttle service , and really die to the fact that it is a Residence Inn and has larger suites and kitchen facilities. If you need a suite for a family or a kitchen for long term stays.And they do offer a special lower rate for patients. On the same property is a brand new Courtyard Marriott, and that hotel is very nice, pleasant, very well run and professional and great hospitality. I would highly recommend the Courtyard Marriott ...and this is my first choice and suggestion, not the Residence Inn. So 5 stars on location, lukewarm review overall.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r84321091-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>84321091</t>
+  </si>
+  <si>
+    <t>10/21/2010</t>
+  </si>
+  <si>
+    <t>Below Average Stay at Residence Inn Houston (Reliant Park)</t>
+  </si>
+  <si>
+    <t>Stayed here three nights for a conference during October 2010.  Had requested and received confirmation for a queen suite, was given a double bed suite at check in.  The place is below average based on my previous experience with Residence Inn and Marriott Properties.  I stay with Marriott because they usually have standards for their properties.  I almost checked out after the first night, but the breakfast is the one positive about this property.  It is slightly above average with a good selection.  There is an outdoor swimming pool and sport court at this hotel, but no fitness center.  It is located close to the medical center and about one mile from Reliant Park.  There is a grocery store adjacent to this property.  I would consider other properties in the future when staying in this area.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>Stayed here three nights for a conference during October 2010.  Had requested and received confirmation for a queen suite, was given a double bed suite at check in.  The place is below average based on my previous experience with Residence Inn and Marriott Properties.  I stay with Marriott because they usually have standards for their properties.  I almost checked out after the first night, but the breakfast is the one positive about this property.  It is slightly above average with a good selection.  There is an outdoor swimming pool and sport court at this hotel, but no fitness center.  It is located close to the medical center and about one mile from Reliant Park.  There is a grocery store adjacent to this property.  I would consider other properties in the future when staying in this area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r74631583-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>74631583</t>
+  </si>
+  <si>
+    <t>08/10/2010</t>
+  </si>
+  <si>
+    <t>An unbelievable place to stay!</t>
+  </si>
+  <si>
+    <t>The absolute best stay at any hotel I have been to. Service was amazing. Everyone was hospitable, helpful, and prompt. Extremely respectful too. The beds were very comfortable and always fresh linen. Bathrooms were very clean as well. Service in and out of the hotel was very accessible. Just minutes from downtown Houston and major freeway access. Plus, the downtown shuttle is literally right outside the front of the hotel. Personnel were very knowledgeable about everything I needed and were always willing to help. If you are looking to stay in Houston, I highly recommend this Marriott. It has all the qualities of a great hotel and the staff that goes above and beyond to make sure you have the best stay possibleMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>The absolute best stay at any hotel I have been to. Service was amazing. Everyone was hospitable, helpful, and prompt. Extremely respectful too. The beds were very comfortable and always fresh linen. Bathrooms were very clean as well. Service in and out of the hotel was very accessible. Just minutes from downtown Houston and major freeway access. Plus, the downtown shuttle is literally right outside the front of the hotel. Personnel were very knowledgeable about everything I needed and were always willing to help. If you are looking to stay in Houston, I highly recommend this Marriott. It has all the qualities of a great hotel and the staff that goes above and beyond to make sure you have the best stay possibleMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r59471005-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>59471005</t>
+  </si>
+  <si>
+    <t>03/24/2010</t>
+  </si>
+  <si>
+    <t>Not bad</t>
+  </si>
+  <si>
+    <t>This is an older property that needs some freshening, but if you find a killer deal then it is well worth it's cost.  It is so close to the Medical center and all the major thoroughfares that one can get to anywhere in Houston relatively easy.Our room was clean and comfortable.  It was your standard Residence Inn-small kitchen, sitting area, no frills bathroom.  The sheets and towels were soft, the bed was comfortable.  The carpet was stained and worn looking, but looked otherwise clean.  There were water stains on the ceiling above our bed, and the ceiling creaked and groaned while we were trying to sleep from the people above us.  There was also a colony of strange small flies populating the room that seemed to emanate  from the water heater closet.  But bugs don't really bother me much, so it didn't disturb me.The free wifi was nice, and they serve a hot breakfast for free every morning.  I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>This is an older property that needs some freshening, but if you find a killer deal then it is well worth it's cost.  It is so close to the Medical center and all the major thoroughfares that one can get to anywhere in Houston relatively easy.Our room was clean and comfortable.  It was your standard Residence Inn-small kitchen, sitting area, no frills bathroom.  The sheets and towels were soft, the bed was comfortable.  The carpet was stained and worn looking, but looked otherwise clean.  There were water stains on the ceiling above our bed, and the ceiling creaked and groaned while we were trying to sleep from the people above us.  There was also a colony of strange small flies populating the room that seemed to emanate  from the water heater closet.  But bugs don't really bother me much, so it didn't disturb me.The free wifi was nice, and they serve a hot breakfast for free every morning.  I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r54549516-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>54549516</t>
+  </si>
+  <si>
+    <t>01/27/2010</t>
+  </si>
+  <si>
+    <t>Comfy bed, bad bathroom</t>
+  </si>
+  <si>
+    <t>These are like little condos.  There was complimentary popcorn, a kitchen fully stocked with dishes.  The bed was very comfortable and the sheets were clean. The problem with my room was a dank smell that came from the bathroom.  In the bathroom, it smelled like feces and the smell didn't waver with the fan on so I had to keep the bathroom door closed.  There was not hot water, just warm.  The couch  was very worn and the carpeting too.   There is no wifi and the tv had stripes through it on all channels, meaning it was about to die.  I had to walk a very long distance outside to my room, and I'm a runner, so if I thought it was long, it was, especially with a heavy suitcase.  The breakfast was wonderful.  The shuttle to the medical center is free, but they fail to mention that it may be packed full of people and you may be the last of 8 to be dropped off, so it can take some time. They DO NOT HAVE A FITNESS CENTER and have not changed this on their website - straight up lie.  It seemed like a cheap decent place to stay if you or a loved one needed medical care and needed to stay in town, but I wouldn't recommend it to much of anyone else.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2010</t>
+  </si>
+  <si>
+    <t>These are like little condos.  There was complimentary popcorn, a kitchen fully stocked with dishes.  The bed was very comfortable and the sheets were clean. The problem with my room was a dank smell that came from the bathroom.  In the bathroom, it smelled like feces and the smell didn't waver with the fan on so I had to keep the bathroom door closed.  There was not hot water, just warm.  The couch  was very worn and the carpeting too.   There is no wifi and the tv had stripes through it on all channels, meaning it was about to die.  I had to walk a very long distance outside to my room, and I'm a runner, so if I thought it was long, it was, especially with a heavy suitcase.  The breakfast was wonderful.  The shuttle to the medical center is free, but they fail to mention that it may be packed full of people and you may be the last of 8 to be dropped off, so it can take some time. They DO NOT HAVE A FITNESS CENTER and have not changed this on their website - straight up lie.  It seemed like a cheap decent place to stay if you or a loved one needed medical care and needed to stay in town, but I wouldn't recommend it to much of anyone else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r53118866-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>53118866</t>
+  </si>
+  <si>
+    <t>01/10/2010</t>
+  </si>
+  <si>
+    <t>Not the latest &amp; greatest--tired &amp; past it's prime</t>
+  </si>
+  <si>
+    <t>My wife &amp; I stayed at this property for about three weeks and while we found our stay acceptable, and we were not displeased to be here, I guess the bottom line of any review or experience is whether I’d return or not.  The short answer for this property is NO!  Read below for explanation.
+I thought I was an experienced traveler, especially at domestic hotels, yet I continue to learn things to ask or verify (which I have taken for granted) particularly when I stay at a property for an extended stay.  Some important items that I have added to the checklist include:
+Is there a fitness room on site?
+Is there free high speed wireless in the room?
+Is parking complimentary?
+The answers to the above three questions for this property are: NO, No (with a caveat), and Yes.
+Fitness Center: I never expected that a Marriott property would not have a fitness center on site!!  However, there is a nearby (1/2 mile) Marriott Spring Hill Suites which offers use of their fitness center to guests of the Residence Inn.  There is a hotel shuttle that runs on the ½ hour (frequently late) that will transport you.
+Hi Speed Internet: There is free wireless internet service in the rooms, but is only the slow, 384/Kb/s speed.  The high speed service costs $8.95/day.  There is also free service in the lobby, but did not use so I don’t know...My wife &amp; I stayed at this property for about three weeks and while we found our stay acceptable, and we were not displeased to be here, I guess the bottom line of any review or experience is whether I’d return or not.  The short answer for this property is NO!  Read below for explanation.I thought I was an experienced traveler, especially at domestic hotels, yet I continue to learn things to ask or verify (which I have taken for granted) particularly when I stay at a property for an extended stay.  Some important items that I have added to the checklist include:Is there a fitness room on site?Is there free high speed wireless in the room?Is parking complimentary?The answers to the above three questions for this property are: NO, No (with a caveat), and Yes.Fitness Center: I never expected that a Marriott property would not have a fitness center on site!!  However, there is a nearby (1/2 mile) Marriott Spring Hill Suites which offers use of their fitness center to guests of the Residence Inn.  There is a hotel shuttle that runs on the ½ hour (frequently late) that will transport you.Hi Speed Internet: There is free wireless internet service in the rooms, but is only the slow, 384/Kb/s speed.  The high speed service costs $8.95/day.  There is also free service in the lobby, but did not use so I don’t know the speed of that service.Parking was free.Other  items that cause me to be negative about this property are:Newspapers: Only a handful of USA Today newspapers are available at no charge in the lobby.  Once they are gone, that’s it, and you’re out of luck—you can’t even purchase one.  Also, despite the statement on the keyholder that “Complimentary local and national papers available in the Gatehouse”, there aren’t any local newspapers available, even for sale!!Facility: This property is over 25 years old, and the hotel and units surely show its age.  There was a large 2” gap under the front door to my unit, and I had to put a towel in front of the door to keep the cold air (and any insects/animals) out.  My unit was not properly nor fully furnished upon check-in, as I had to request an oven tray for cooking, plastic container bowls, and missing silverware.  Am I supposed to be quality and inventory control?TV: The tv in the room was the old, standard 15” type.  The channels offered were minimal, and did not include CNBC, Fox Business News or many other “normal” offerings.  The picture was dark and the sound quality was barely acceptable.  We had such a poor experience with the Pay-per View, that they sent maintenance over who saw the problem yet could not fix it, and ended  up providing us that movie for free—we did not attempt any further viewings during our stay.Housekeeping: The housekeeping staff was poorly outfitted as well, as several times they didn’t have dishwasher powder.  So, they may run the dishwasher but I would question the cleanliness if no soap was used--how can they clean the dishes?  I ended up obtaining sufficient quantity of dishwasher powder and ran the dishwasher myself to insure that I had clean dishes everyday.Fruit: Fruit in the lobby was only available during the breakfast hours.  I think EVERY other Marriott property I’ve been to offer some fruit (apples/oranges/water/candy) throughout the day.  And despite the fact that there were fresh apples/oranges in the kitchen, old, soft and spoiled apples were not replaced until the apples were truly evidently brown &amp; mushy.Two important positives were the attitudes of the front desk and kitchen personnel.  They made every effort to make our stay pleasant.  Also, there is a Kroger supermarket 300 feet away.The location in southwest Houston is close to the various medical centers.  It’s about an 8 minute drive to the museums, 15 minutes to downtown and 20 minutes to the Galleria. The owners of this property are nearing completion of a brand new 9 story Courtyard on an adjacent lot.  That site was formerly where the other half of this Residence Inn originally was located.  This current site will be razed in a few years for other new hotels---I feel that’s way too far in the future, as this property has long since been profitable and the required update is long overdue.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2009</t>
+  </si>
+  <si>
+    <t>My wife &amp; I stayed at this property for about three weeks and while we found our stay acceptable, and we were not displeased to be here, I guess the bottom line of any review or experience is whether I’d return or not.  The short answer for this property is NO!  Read below for explanation.
+I thought I was an experienced traveler, especially at domestic hotels, yet I continue to learn things to ask or verify (which I have taken for granted) particularly when I stay at a property for an extended stay.  Some important items that I have added to the checklist include:
+Is there a fitness room on site?
+Is there free high speed wireless in the room?
+Is parking complimentary?
+The answers to the above three questions for this property are: NO, No (with a caveat), and Yes.
+Fitness Center: I never expected that a Marriott property would not have a fitness center on site!!  However, there is a nearby (1/2 mile) Marriott Spring Hill Suites which offers use of their fitness center to guests of the Residence Inn.  There is a hotel shuttle that runs on the ½ hour (frequently late) that will transport you.
+Hi Speed Internet: There is free wireless internet service in the rooms, but is only the slow, 384/Kb/s speed.  The high speed service costs $8.95/day.  There is also free service in the lobby, but did not use so I don’t know...My wife &amp; I stayed at this property for about three weeks and while we found our stay acceptable, and we were not displeased to be here, I guess the bottom line of any review or experience is whether I’d return or not.  The short answer for this property is NO!  Read below for explanation.I thought I was an experienced traveler, especially at domestic hotels, yet I continue to learn things to ask or verify (which I have taken for granted) particularly when I stay at a property for an extended stay.  Some important items that I have added to the checklist include:Is there a fitness room on site?Is there free high speed wireless in the room?Is parking complimentary?The answers to the above three questions for this property are: NO, No (with a caveat), and Yes.Fitness Center: I never expected that a Marriott property would not have a fitness center on site!!  However, there is a nearby (1/2 mile) Marriott Spring Hill Suites which offers use of their fitness center to guests of the Residence Inn.  There is a hotel shuttle that runs on the ½ hour (frequently late) that will transport you.Hi Speed Internet: There is free wireless internet service in the rooms, but is only the slow, 384/Kb/s speed.  The high speed service costs $8.95/day.  There is also free service in the lobby, but did not use so I don’t know the speed of that service.Parking was free.Other  items that cause me to be negative about this property are:Newspapers: Only a handful of USA Today newspapers are available at no charge in the lobby.  Once they are gone, that’s it, and you’re out of luck—you can’t even purchase one.  Also, despite the statement on the keyholder that “Complimentary local and national papers available in the Gatehouse”, there aren’t any local newspapers available, even for sale!!Facility: This property is over 25 years old, and the hotel and units surely show its age.  There was a large 2” gap under the front door to my unit, and I had to put a towel in front of the door to keep the cold air (and any insects/animals) out.  My unit was not properly nor fully furnished upon check-in, as I had to request an oven tray for cooking, plastic container bowls, and missing silverware.  Am I supposed to be quality and inventory control?TV: The tv in the room was the old, standard 15” type.  The channels offered were minimal, and did not include CNBC, Fox Business News or many other “normal” offerings.  The picture was dark and the sound quality was barely acceptable.  We had such a poor experience with the Pay-per View, that they sent maintenance over who saw the problem yet could not fix it, and ended  up providing us that movie for free—we did not attempt any further viewings during our stay.Housekeeping: The housekeeping staff was poorly outfitted as well, as several times they didn’t have dishwasher powder.  So, they may run the dishwasher but I would question the cleanliness if no soap was used--how can they clean the dishes?  I ended up obtaining sufficient quantity of dishwasher powder and ran the dishwasher myself to insure that I had clean dishes everyday.Fruit: Fruit in the lobby was only available during the breakfast hours.  I think EVERY other Marriott property I’ve been to offer some fruit (apples/oranges/water/candy) throughout the day.  And despite the fact that there were fresh apples/oranges in the kitchen, old, soft and spoiled apples were not replaced until the apples were truly evidently brown &amp; mushy.Two important positives were the attitudes of the front desk and kitchen personnel.  They made every effort to make our stay pleasant.  Also, there is a Kroger supermarket 300 feet away.The location in southwest Houston is close to the various medical centers.  It’s about an 8 minute drive to the museums, 15 minutes to downtown and 20 minutes to the Galleria. The owners of this property are nearing completion of a brand new 9 story Courtyard on an adjacent lot.  That site was formerly where the other half of this Residence Inn originally was located.  This current site will be razed in a few years for other new hotels---I feel that’s way too far in the future, as this property has long since been profitable and the required update is long overdue.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r34853009-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>34853009</t>
+  </si>
+  <si>
+    <t>07/15/2009</t>
+  </si>
+  <si>
+    <t>Great location but watch your valuables</t>
+  </si>
+  <si>
+    <t>The traffic around this hotel was never busy and was a short walk to get to the MetroRail, which takes you to the museums, zoo, downtown, etc. There is some construction going on close by, but I never once heard it. It's got a nice pool and also basketball court. Breakfast was a full, delicious course. However my car did get broken into because I left my GPS on the windshield, I knew better, totally my fault, I def knew better. Staff helped me out with that matter very nicely. Other than that, the room was large and cozy, no complaints at all.</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r27413725-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>27413725</t>
+  </si>
+  <si>
+    <t>04/04/2009</t>
+  </si>
+  <si>
+    <t>Older property. Nice. Very nice staff. Loud construction though.</t>
+  </si>
+  <si>
+    <t>Stayed here due to the Hampton down the street's internet being broken.Older property. No wired internet, but "average" strength wireless. Very nice manager's reception, and very nice breakfast. Staff was outstanding. Called to make sure everything was OK after check-in. Construction is occuring next door. Its a little loud. I stayed on the other side of the construction, and I could still hear the trucks. Also, the "quiet" side butts up to a grocery store, and tractor-trailers were loading in in the morning.All-in-all a nice property. A tad outdated, but it was better than my first option (the hampton with broken internet)</t>
+  </si>
+  <si>
+    <t>February 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r21205106-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>21205106</t>
+  </si>
+  <si>
+    <t>10/25/2008</t>
+  </si>
+  <si>
+    <t>Never again</t>
+  </si>
+  <si>
+    <t>We stayed in the Residence Inn during  and after IKE . IKE passed Houston from Friday to Saturday and the whole hotel  lost power. In the late Saturday afternoon nearly 1/4 of the rooms got power back and the rest of the rooms stayed for more than 4 days without power. We asked for another room with power and we're told by the Residence Inn Manager, that it isn't possible to change rooms, but instead given rooms with power and AC to his guests he gave this rooms with power to his staff  (although a lot of his guests were really sick (cancer etc) and he expected that they payed the full price for a room with no AC, no fridge, no microwave, no light at all etc. After our complaints concerning this circumstances (Staff with AC etc , guests without) the hotel manager replied, that he couldn't understand this complaints and at the end of his email he redicules us with   "Thank you for choosing Marriott"MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2008</t>
+  </si>
+  <si>
+    <t>We stayed in the Residence Inn during  and after IKE . IKE passed Houston from Friday to Saturday and the whole hotel  lost power. In the late Saturday afternoon nearly 1/4 of the rooms got power back and the rest of the rooms stayed for more than 4 days without power. We asked for another room with power and we're told by the Residence Inn Manager, that it isn't possible to change rooms, but instead given rooms with power and AC to his guests he gave this rooms with power to his staff  (although a lot of his guests were really sick (cancer etc) and he expected that they payed the full price for a room with no AC, no fridge, no microwave, no light at all etc. After our complaints concerning this circumstances (Staff with AC etc , guests without) the hotel manager replied, that he couldn't understand this complaints and at the end of his email he redicules us with   "Thank you for choosing Marriott"More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r14238670-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>14238670</t>
+  </si>
+  <si>
+    <t>03/12/2008</t>
+  </si>
+  <si>
+    <t>Absolutely terrible</t>
+  </si>
+  <si>
+    <t>I recently completed a stay at the Residence Inn – Houston Medical Center.  I travel quite a bit as part of my job – probably around 2000 nights over the last dozen years.  The hotel itself certainly was much nicer than the average hotel that I’ve stayed at over the years.  However, I’d have to say that there were a few issues.
+	My flight into Houston was cancelled, and I was rerouted through several other air carriers.  These airlines were unable to successfully deliver my luggage in a timely manner.  Alas, I checked into the hotel on March 10, 2008 without my luggage.
+	I went to a grocery store along the way, and I picked up a bunch of food and essentials for the week.  On the morning of March 11, 2008, I left all of these items in my hotel room along with my toiletries, medications, platinum arrival gift, and several other belongings. I also left a note asking for the A/C to be looked at, as it was not working (luckily, the room was not uncomfortably warm yet).
+	My luggage managed to be delivered to the hotel later that afternoon.  I picked it up when I stopped by the hotel during a quick break in my work schedule.  I was very happy that it arrived, and I brought it up to my room.  Curiously, the room was in a state of disarray.  Every cabinet and drawer in the...I recently completed a stay at the Residence Inn – Houston Medical Center.  I travel quite a bit as part of my job – probably around 2000 nights over the last dozen years.  The hotel itself certainly was much nicer than the average hotel that I’ve stayed at over the years.  However, I’d have to say that there were a few issues.	My flight into Houston was cancelled, and I was rerouted through several other air carriers.  These airlines were unable to successfully deliver my luggage in a timely manner.  Alas, I checked into the hotel on March 10, 2008 without my luggage.	I went to a grocery store along the way, and I picked up a bunch of food and essentials for the week.  On the morning of March 11, 2008, I left all of these items in my hotel room along with my toiletries, medications, platinum arrival gift, and several other belongings. I also left a note asking for the A/C to be looked at, as it was not working (luckily, the room was not uncomfortably warm yet).	My luggage managed to be delivered to the hotel later that afternoon.  I picked it up when I stopped by the hotel during a quick break in my work schedule.  I was very happy that it arrived, and I brought it up to my room.  Curiously, the room was in a state of disarray.  Every cabinet and drawer in the entire suite had been left open, and the sofa cushions were propped up in a very odd manner.  This was odd, but I just figured that some special cleaning had been done or something. Lots of odd things tend to happen in hotels.	My elation at the luggage arrival must have kept me from immediate recognizing that almost all the things that I had left in the room that morning were now missing.  I did notice that my note about the AC had disappeared, and the air blowing out of the vent felt slightly cool.  I figured that they must have fixed it.  I turned down the thermostat a few more degrees and went back to work.Several hours later, when I arrived back in the room, it was still quite warm in the room.  I went to grab a water out of the refrigerator, and I saw that it had been completely emptied out.  I quickly realized everything else was missing as well, except for my cell phone charger, and a magazine I had left in the restroom.  I called the front desk and asked for an explanation, and I was told that it must have been a “mistake”.  I was absolutely furious.  I ended up leaving a message for the hotel General Manager, Barry Shank, explaining my situation.  The room was very warm – clearly the air conditioning was still not working properly.	The next morning, March 11, 2008, I left a series of notes in the room asking for my belongings to be returned and for the A/C to be fixed.  To be safe, I packed up all of my belongings before I left the room. I stopped by the hotel again that afternoon to find that all my notes had been removed (except for the one on the thermostat), and nothing noticeable had been done to fix the A/C. The room was uncomfortably hot.  I searched the Internet for alternate accommodations, but due to the nearby rodeo in Houston, the area was sold out.	None of my belongings were returned, but there was a message from Mr. Shank on my phone letting me know that I was welcome to go back to the grocery store and re-purchase everything that the hotel had removed and I would be reimbursed.  Apparently, I was guilty of not leaving enough luggage in the room, which at this particular hotel is understood to be a signal to the hotel staff to steal everything in the room.  Clearly, I’m paraphrasing a bit, but the implication was definitely made that I was at least partially to blame for not leaving any luggage in the room and I was lucky to have received such a generous offer.  Nonetheless, I decided it would be a waste of my time to purchase more items which the hotel staff may or may not steal again.There was also an Easter basket on the counter filled with some candy, particularly “Peeps Marshmallow Bunnies”.  That would be a fine gesture, but I am vegan, and I don’t eat candy made of ground up horse hooves.	On my way out of the hotel, I stopped by the front desk and explained the situation with the A/C. I talked very slowly, and I made sure that the gentleman understood that it was not working.  I must have been successful, as when I returned to my room late that evening, I had a voicemail from someone explaining that the maintenance staff had determined that there was a problem with the air conditioning in my room.  Mind you, it wasn’t actually fixed yet, but they were going to fix it someday.  In the meantime, the hotel was going to need me to change rooms the next day.	I rolled around in bed for a while, sweating and uncomfortable.  Eventually, I decided to leave my $189 per night room and go out to my car and sleep, since it was much cooler outside.  It was the best sleep I had during my stay.	On the morning of March 12, 2008, I was able to find a new hotel.  I gleefully brought a premature end to my stay at the Residence Inn – Houston Medical Center.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2008</t>
+  </si>
+  <si>
+    <t>I recently completed a stay at the Residence Inn – Houston Medical Center.  I travel quite a bit as part of my job – probably around 2000 nights over the last dozen years.  The hotel itself certainly was much nicer than the average hotel that I’ve stayed at over the years.  However, I’d have to say that there were a few issues.
+	My flight into Houston was cancelled, and I was rerouted through several other air carriers.  These airlines were unable to successfully deliver my luggage in a timely manner.  Alas, I checked into the hotel on March 10, 2008 without my luggage.
+	I went to a grocery store along the way, and I picked up a bunch of food and essentials for the week.  On the morning of March 11, 2008, I left all of these items in my hotel room along with my toiletries, medications, platinum arrival gift, and several other belongings. I also left a note asking for the A/C to be looked at, as it was not working (luckily, the room was not uncomfortably warm yet).
+	My luggage managed to be delivered to the hotel later that afternoon.  I picked it up when I stopped by the hotel during a quick break in my work schedule.  I was very happy that it arrived, and I brought it up to my room.  Curiously, the room was in a state of disarray.  Every cabinet and drawer in the...I recently completed a stay at the Residence Inn – Houston Medical Center.  I travel quite a bit as part of my job – probably around 2000 nights over the last dozen years.  The hotel itself certainly was much nicer than the average hotel that I’ve stayed at over the years.  However, I’d have to say that there were a few issues.	My flight into Houston was cancelled, and I was rerouted through several other air carriers.  These airlines were unable to successfully deliver my luggage in a timely manner.  Alas, I checked into the hotel on March 10, 2008 without my luggage.	I went to a grocery store along the way, and I picked up a bunch of food and essentials for the week.  On the morning of March 11, 2008, I left all of these items in my hotel room along with my toiletries, medications, platinum arrival gift, and several other belongings. I also left a note asking for the A/C to be looked at, as it was not working (luckily, the room was not uncomfortably warm yet).	My luggage managed to be delivered to the hotel later that afternoon.  I picked it up when I stopped by the hotel during a quick break in my work schedule.  I was very happy that it arrived, and I brought it up to my room.  Curiously, the room was in a state of disarray.  Every cabinet and drawer in the entire suite had been left open, and the sofa cushions were propped up in a very odd manner.  This was odd, but I just figured that some special cleaning had been done or something. Lots of odd things tend to happen in hotels.	My elation at the luggage arrival must have kept me from immediate recognizing that almost all the things that I had left in the room that morning were now missing.  I did notice that my note about the AC had disappeared, and the air blowing out of the vent felt slightly cool.  I figured that they must have fixed it.  I turned down the thermostat a few more degrees and went back to work.Several hours later, when I arrived back in the room, it was still quite warm in the room.  I went to grab a water out of the refrigerator, and I saw that it had been completely emptied out.  I quickly realized everything else was missing as well, except for my cell phone charger, and a magazine I had left in the restroom.  I called the front desk and asked for an explanation, and I was told that it must have been a “mistake”.  I was absolutely furious.  I ended up leaving a message for the hotel General Manager, Barry Shank, explaining my situation.  The room was very warm – clearly the air conditioning was still not working properly.	The next morning, March 11, 2008, I left a series of notes in the room asking for my belongings to be returned and for the A/C to be fixed.  To be safe, I packed up all of my belongings before I left the room. I stopped by the hotel again that afternoon to find that all my notes had been removed (except for the one on the thermostat), and nothing noticeable had been done to fix the A/C. The room was uncomfortably hot.  I searched the Internet for alternate accommodations, but due to the nearby rodeo in Houston, the area was sold out.	None of my belongings were returned, but there was a message from Mr. Shank on my phone letting me know that I was welcome to go back to the grocery store and re-purchase everything that the hotel had removed and I would be reimbursed.  Apparently, I was guilty of not leaving enough luggage in the room, which at this particular hotel is understood to be a signal to the hotel staff to steal everything in the room.  Clearly, I’m paraphrasing a bit, but the implication was definitely made that I was at least partially to blame for not leaving any luggage in the room and I was lucky to have received such a generous offer.  Nonetheless, I decided it would be a waste of my time to purchase more items which the hotel staff may or may not steal again.There was also an Easter basket on the counter filled with some candy, particularly “Peeps Marshmallow Bunnies”.  That would be a fine gesture, but I am vegan, and I don’t eat candy made of ground up horse hooves.	On my way out of the hotel, I stopped by the front desk and explained the situation with the A/C. I talked very slowly, and I made sure that the gentleman understood that it was not working.  I must have been successful, as when I returned to my room late that evening, I had a voicemail from someone explaining that the maintenance staff had determined that there was a problem with the air conditioning in my room.  Mind you, it wasn’t actually fixed yet, but they were going to fix it someday.  In the meantime, the hotel was going to need me to change rooms the next day.	I rolled around in bed for a while, sweating and uncomfortable.  Eventually, I decided to leave my $189 per night room and go out to my car and sleep, since it was much cooler outside.  It was the best sleep I had during my stay.	On the morning of March 12, 2008, I was able to find a new hotel.  I gleefully brought a premature end to my stay at the Residence Inn – Houston Medical Center.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r10813952-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>10813952</t>
+  </si>
+  <si>
+    <t>11/14/2007</t>
+  </si>
+  <si>
+    <t>what a nice place!</t>
+  </si>
+  <si>
+    <t>we recently stayed 11 days at this facility while our son was testing and then had two surgeries at st. lukes hospital there.  the people at the desk, the people who made breakfast, the people who cleaned were all as pleasant as could be and all tried to make our stay good and efficient.  we received a medical rate as our son had the surgeries and w/that rate, we got a suite(the suite was a tiny bit run down but we could see where many of the suites were in the process of being remodeled.  our daughter-in-law's suite was very nice), the use of a shuttle  to and from most any place we wanted to go and most any time, a warm breakfast every a.m. and a complimentary dinner mon.-thurs., the use of a full service gym, a washer and dryer facility.  the shuttle drivers were very nice and kind during a stressful time.  this was a nice place and we recommend it to anyone, even if your loved one is not having surgery or treatment.   it is also within about 3-5 miles of nice restaurants and shops and the shuttle drivers take you there from 6:30 a.m. until 8:30 p.m. each day.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2007</t>
+  </si>
+  <si>
+    <t>we recently stayed 11 days at this facility while our son was testing and then had two surgeries at st. lukes hospital there.  the people at the desk, the people who made breakfast, the people who cleaned were all as pleasant as could be and all tried to make our stay good and efficient.  we received a medical rate as our son had the surgeries and w/that rate, we got a suite(the suite was a tiny bit run down but we could see where many of the suites were in the process of being remodeled.  our daughter-in-law's suite was very nice), the use of a shuttle  to and from most any place we wanted to go and most any time, a warm breakfast every a.m. and a complimentary dinner mon.-thurs., the use of a full service gym, a washer and dryer facility.  the shuttle drivers were very nice and kind during a stressful time.  this was a nice place and we recommend it to anyone, even if your loved one is not having surgery or treatment.   it is also within about 3-5 miles of nice restaurants and shops and the shuttle drivers take you there from 6:30 a.m. until 8:30 p.m. each day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r8230120-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>8230120</t>
+  </si>
+  <si>
+    <t>07/23/2007</t>
+  </si>
+  <si>
+    <t>nice place to stay</t>
+  </si>
+  <si>
+    <t>We stayed at the Residence Inn due to my daughter having surgery in Houston.  The room was clean and our requests were answered very quickly.  We love the shuttle to the medical centers around Houston.  Breakfast was awesome-there is something for everyone! Thanks for making a hard time a little easier.</t>
+  </si>
+  <si>
+    <t>July 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r7540142-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>7540142</t>
+  </si>
+  <si>
+    <t>05/01/2007</t>
+  </si>
+  <si>
+    <t>Don't go here if you have a rental car</t>
+  </si>
+  <si>
+    <t>I stayed at the Residence Inn/Medical Center last December when interviewing at the Baylor College of Medicine.  I had actually spent ten months living in Houston following Hurricane Katrina, and lived right around the med center, so I knew which areas were sketchier than others, and figured I'd be just fine staying at this particular hotel.Check in was unremarkable, and the room itself was fine.  However, the next morning when I was leaving to drive myself to the medical center, I discovered that my rental car had its tires and wheels stolen overnight.  There are two kickers to this story: in the parking lot with me were 3 other IDENTICAL cars (same make, model, year) that still had their wheels, and the Residence Inn made a big deal of having one side of the parking entrance closed off by 9 pm so as to thwart thieves (presumably?  it clearly didn't work).  Management acted as though nothing had happened when I informed them of the situation--just a calm "ok, inform the rental company, file a police report, and leave the keys here with us if you will be leaving the hotel to go about your day."  I get the feeling this has happened many times before, and that they are well-versed in how to "handle" it.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2006</t>
+  </si>
+  <si>
+    <t>I stayed at the Residence Inn/Medical Center last December when interviewing at the Baylor College of Medicine.  I had actually spent ten months living in Houston following Hurricane Katrina, and lived right around the med center, so I knew which areas were sketchier than others, and figured I'd be just fine staying at this particular hotel.Check in was unremarkable, and the room itself was fine.  However, the next morning when I was leaving to drive myself to the medical center, I discovered that my rental car had its tires and wheels stolen overnight.  There are two kickers to this story: in the parking lot with me were 3 other IDENTICAL cars (same make, model, year) that still had their wheels, and the Residence Inn made a big deal of having one side of the parking entrance closed off by 9 pm so as to thwart thieves (presumably?  it clearly didn't work).  Management acted as though nothing had happened when I informed them of the situation--just a calm "ok, inform the rental company, file a police report, and leave the keys here with us if you will be leaving the hotel to go about your day."  I get the feeling this has happened many times before, and that they are well-versed in how to "handle" it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r6059524-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>6059524</t>
+  </si>
+  <si>
+    <t>11/04/2006</t>
+  </si>
+  <si>
+    <t>Accomodation wonderful but poor management.</t>
+  </si>
+  <si>
+    <t>The room was always clean and facilities were everything we expected. Staff members were all around pleasant except for the management. Though we were booked for almost two months, we woke up twice to a bill on our door saying that we were to checkout that day. During my stay I have heard several other guest with similar problems.When I brought this issue to the front desk they were unhelpful, though this was probably out of their control. The management was then contacted and they were not only unhelpful in correcting the problem, but were belittling and unsympathetic. I would recommend this hotel for a short stay, but not if you expect to be there for more than a couple weeks.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2006</t>
+  </si>
+  <si>
+    <t>The room was always clean and facilities were everything we expected. Staff members were all around pleasant except for the management. Though we were booked for almost two months, we woke up twice to a bill on our door saying that we were to checkout that day. During my stay I have heard several other guest with similar problems.When I brought this issue to the front desk they were unhelpful, though this was probably out of their control. The management was then contacted and they were not only unhelpful in correcting the problem, but were belittling and unsympathetic. I would recommend this hotel for a short stay, but not if you expect to be there for more than a couple weeks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r5236992-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>5236992</t>
+  </si>
+  <si>
+    <t>05/30/2006</t>
+  </si>
+  <si>
+    <t>The Best Home Away from Home</t>
+  </si>
+  <si>
+    <t>Having stayed at the Residence Inn consistently for nearly five months, I feel like part of their family.  Every guest is greeted with a smile and willingness to assist from each of the staff.  The front desk staff is incredible, the rooms are always clean, and the morning breakfast buffet and evening hospitality hours always well staffed and supplied!  The shuttle service is a bonus.  Guests are encouraged to come to the desk 45 minutes before needing to be at their destination as the shuttles are consistently busy with all of the guests transporation needs to-and-from the medical center and surrounding areas.  The rooms are not new, with much older cabinetry, couches, and color schemes.  However, they are going to begin additional renovation soon with all new updates!  Overall, an exceptional value for your dollar!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2006</t>
+  </si>
+  <si>
+    <t>Having stayed at the Residence Inn consistently for nearly five months, I feel like part of their family.  Every guest is greeted with a smile and willingness to assist from each of the staff.  The front desk staff is incredible, the rooms are always clean, and the morning breakfast buffet and evening hospitality hours always well staffed and supplied!  The shuttle service is a bonus.  Guests are encouraged to come to the desk 45 minutes before needing to be at their destination as the shuttles are consistently busy with all of the guests transporation needs to-and-from the medical center and surrounding areas.  The rooms are not new, with much older cabinetry, couches, and color schemes.  However, they are going to begin additional renovation soon with all new updates!  Overall, an exceptional value for your dollar!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r3479977-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>3479977</t>
+  </si>
+  <si>
+    <t>05/16/2005</t>
+  </si>
+  <si>
+    <t>A Wonderful Experience</t>
+  </si>
+  <si>
+    <t>We would like to say a special "Thank You" to the staff at Residence Inn Houston Medical Center/Reliant Park.  We actually stayed there 3 times from October - December 2004 and had a wonderful experience everytime.  The staff was always nice, friendly, and anixous to help with not just things pertaining to Residence Inn but information about the city.  They made a very stressful time less stressful by helping in every way.The breakfast and evening "happy hour" were always great.  We have stayed in many hotels but this was the best service we had every received.  Keep up the good work guys!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r3307235-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>3307235</t>
+  </si>
+  <si>
+    <t>03/27/2005</t>
+  </si>
+  <si>
+    <t>Great location close to the Reliant Center</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here on March 12-13, 2005.  This was our first trip to Texas and we wanted to go to the Houston Rodeo.  We chose this hotel based on trip advisor reviews and location close to the Reliant Center.  It was a beautiful, very clean and comfortable room with a wonderful breakfast buffet including waffles in the shape of the state of Texas!  Staff very friendly and a good value.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109748-r3181667-Residence_Inn_Houston_Medical_Center_NRG_Park-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>3181667</t>
+  </si>
+  <si>
+    <t>02/11/2005</t>
+  </si>
+  <si>
+    <t>Absolutely the best people in the hotel business!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I've NEVER been to a hotel where the people seem to truly care about me as a person and not just another "customer"!!!  My housekeeper gave me a little gift in my room and she didn't even speak English very well!  We just saw each other when she came to clean my room.  Very pleasant.  The front desk staff was incredible.  Everyone greeted me as I walked around.  I felt like I was a VIP or something. </t>
   </si>
 </sst>
 </file>
@@ -532,11 +2289,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2321,5751 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>91</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" t="s">
+        <v>79</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11" t="s">
+        <v>79</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" t="s">
+        <v>114</v>
+      </c>
+      <c r="L12" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>116</v>
+      </c>
+      <c r="O12" t="s">
+        <v>79</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13" t="s">
+        <v>120</v>
+      </c>
+      <c r="L13" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>116</v>
+      </c>
+      <c r="O13" t="s">
+        <v>79</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>123</v>
+      </c>
+      <c r="J14" t="s">
+        <v>124</v>
+      </c>
+      <c r="K14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L14" t="s">
+        <v>126</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>127</v>
+      </c>
+      <c r="O14" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>129</v>
+      </c>
+      <c r="J15" t="s">
+        <v>130</v>
+      </c>
+      <c r="K15" t="s">
+        <v>131</v>
+      </c>
+      <c r="L15" t="s">
+        <v>132</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>127</v>
+      </c>
+      <c r="O15" t="s">
+        <v>79</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>135</v>
+      </c>
+      <c r="J16" t="s">
+        <v>136</v>
+      </c>
+      <c r="K16" t="s">
+        <v>137</v>
+      </c>
+      <c r="L16" t="s">
+        <v>138</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>139</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>141</v>
+      </c>
+      <c r="J17" t="s">
+        <v>142</v>
+      </c>
+      <c r="K17" t="s">
+        <v>143</v>
+      </c>
+      <c r="L17" t="s">
+        <v>144</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>139</v>
+      </c>
+      <c r="O17" t="s">
+        <v>79</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>145</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>146</v>
+      </c>
+      <c r="J18" t="s">
+        <v>147</v>
+      </c>
+      <c r="K18" t="s">
+        <v>148</v>
+      </c>
+      <c r="L18" t="s">
+        <v>149</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>139</v>
+      </c>
+      <c r="O18" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>151</v>
+      </c>
+      <c r="J19" t="s">
+        <v>152</v>
+      </c>
+      <c r="K19" t="s">
+        <v>153</v>
+      </c>
+      <c r="L19" t="s">
+        <v>154</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>139</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>155</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>156</v>
+      </c>
+      <c r="J20" t="s">
+        <v>157</v>
+      </c>
+      <c r="K20" t="s">
+        <v>158</v>
+      </c>
+      <c r="L20" t="s">
+        <v>159</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>160</v>
+      </c>
+      <c r="O20" t="s">
+        <v>66</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>161</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>162</v>
+      </c>
+      <c r="J21" t="s">
+        <v>163</v>
+      </c>
+      <c r="K21" t="s">
+        <v>164</v>
+      </c>
+      <c r="L21" t="s">
+        <v>165</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>166</v>
+      </c>
+      <c r="O21" t="s">
+        <v>79</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>168</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>169</v>
+      </c>
+      <c r="J22" t="s">
+        <v>170</v>
+      </c>
+      <c r="K22" t="s">
+        <v>171</v>
+      </c>
+      <c r="L22" t="s">
+        <v>172</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>173</v>
+      </c>
+      <c r="O22" t="s">
+        <v>79</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>175</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>176</v>
+      </c>
+      <c r="J23" t="s">
+        <v>177</v>
+      </c>
+      <c r="K23" t="s">
+        <v>178</v>
+      </c>
+      <c r="L23" t="s">
+        <v>179</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>180</v>
+      </c>
+      <c r="O23" t="s">
+        <v>79</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>181</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>182</v>
+      </c>
+      <c r="J24" t="s">
+        <v>183</v>
+      </c>
+      <c r="K24" t="s">
+        <v>184</v>
+      </c>
+      <c r="L24" t="s">
+        <v>185</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>186</v>
+      </c>
+      <c r="O24" t="s">
+        <v>79</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>187</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>188</v>
+      </c>
+      <c r="J25" t="s">
+        <v>189</v>
+      </c>
+      <c r="K25" t="s">
+        <v>190</v>
+      </c>
+      <c r="L25" t="s">
+        <v>191</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>180</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>193</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>194</v>
+      </c>
+      <c r="J26" t="s">
+        <v>195</v>
+      </c>
+      <c r="K26" t="s">
+        <v>196</v>
+      </c>
+      <c r="L26" t="s">
+        <v>197</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>186</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>198</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>199</v>
+      </c>
+      <c r="J27" t="s">
+        <v>200</v>
+      </c>
+      <c r="K27" t="s">
+        <v>201</v>
+      </c>
+      <c r="L27" t="s">
+        <v>202</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>186</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>204</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>205</v>
+      </c>
+      <c r="J28" t="s">
+        <v>206</v>
+      </c>
+      <c r="K28" t="s">
+        <v>207</v>
+      </c>
+      <c r="L28" t="s">
+        <v>208</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>186</v>
+      </c>
+      <c r="O28" t="s">
+        <v>79</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>209</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>210</v>
+      </c>
+      <c r="J29" t="s">
+        <v>211</v>
+      </c>
+      <c r="K29" t="s">
+        <v>212</v>
+      </c>
+      <c r="L29" t="s">
+        <v>213</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>215</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>216</v>
+      </c>
+      <c r="J30" t="s">
+        <v>217</v>
+      </c>
+      <c r="K30" t="s">
+        <v>218</v>
+      </c>
+      <c r="L30" t="s">
+        <v>219</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>220</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>221</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>222</v>
+      </c>
+      <c r="J31" t="s">
+        <v>223</v>
+      </c>
+      <c r="K31" t="s">
+        <v>224</v>
+      </c>
+      <c r="L31" t="s">
+        <v>225</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>226</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>227</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>228</v>
+      </c>
+      <c r="J32" t="s">
+        <v>229</v>
+      </c>
+      <c r="K32" t="s">
+        <v>230</v>
+      </c>
+      <c r="L32" t="s">
+        <v>231</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>220</v>
+      </c>
+      <c r="O32" t="s">
+        <v>66</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>232</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>233</v>
+      </c>
+      <c r="J33" t="s">
+        <v>234</v>
+      </c>
+      <c r="K33" t="s">
+        <v>235</v>
+      </c>
+      <c r="L33" t="s">
+        <v>236</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>237</v>
+      </c>
+      <c r="O33" t="s">
+        <v>79</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>238</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>239</v>
+      </c>
+      <c r="J34" t="s">
+        <v>240</v>
+      </c>
+      <c r="K34" t="s">
+        <v>241</v>
+      </c>
+      <c r="L34" t="s">
+        <v>242</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>243</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>245</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>246</v>
+      </c>
+      <c r="J35" t="s">
+        <v>247</v>
+      </c>
+      <c r="K35" t="s">
+        <v>248</v>
+      </c>
+      <c r="L35" t="s">
+        <v>249</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>250</v>
+      </c>
+      <c r="O35" t="s">
+        <v>79</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>2</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>3</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>251</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>252</v>
+      </c>
+      <c r="J36" t="s">
+        <v>253</v>
+      </c>
+      <c r="K36" t="s">
+        <v>254</v>
+      </c>
+      <c r="L36" t="s">
+        <v>255</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>256</v>
+      </c>
+      <c r="O36" t="s">
+        <v>257</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>259</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>260</v>
+      </c>
+      <c r="J37" t="s">
+        <v>261</v>
+      </c>
+      <c r="K37" t="s">
+        <v>262</v>
+      </c>
+      <c r="L37" t="s">
+        <v>263</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>264</v>
+      </c>
+      <c r="O37" t="s">
+        <v>79</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>266</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>267</v>
+      </c>
+      <c r="J38" t="s">
+        <v>268</v>
+      </c>
+      <c r="K38" t="s">
+        <v>269</v>
+      </c>
+      <c r="L38" t="s">
+        <v>270</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>271</v>
+      </c>
+      <c r="O38" t="s">
+        <v>79</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>1</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>273</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>274</v>
+      </c>
+      <c r="J39" t="s">
+        <v>275</v>
+      </c>
+      <c r="K39" t="s">
+        <v>276</v>
+      </c>
+      <c r="L39" t="s">
+        <v>277</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>278</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>279</v>
+      </c>
+      <c r="J40" t="s">
+        <v>280</v>
+      </c>
+      <c r="K40" t="s">
+        <v>281</v>
+      </c>
+      <c r="L40" t="s">
+        <v>282</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>250</v>
+      </c>
+      <c r="O40" t="s">
+        <v>79</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>284</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>285</v>
+      </c>
+      <c r="J41" t="s">
+        <v>286</v>
+      </c>
+      <c r="K41" t="s">
+        <v>287</v>
+      </c>
+      <c r="L41" t="s">
+        <v>288</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>289</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>291</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>292</v>
+      </c>
+      <c r="J42" t="s">
+        <v>293</v>
+      </c>
+      <c r="K42" t="s">
+        <v>294</v>
+      </c>
+      <c r="L42" t="s">
+        <v>295</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>289</v>
+      </c>
+      <c r="O42" t="s">
+        <v>66</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>297</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>298</v>
+      </c>
+      <c r="J43" t="s">
+        <v>299</v>
+      </c>
+      <c r="K43" t="s">
+        <v>300</v>
+      </c>
+      <c r="L43" t="s">
+        <v>301</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>302</v>
+      </c>
+      <c r="O43" t="s">
+        <v>79</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>304</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>305</v>
+      </c>
+      <c r="J44" t="s">
+        <v>306</v>
+      </c>
+      <c r="K44" t="s">
+        <v>307</v>
+      </c>
+      <c r="L44" t="s">
+        <v>308</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>309</v>
+      </c>
+      <c r="O44" t="s">
+        <v>79</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>311</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>312</v>
+      </c>
+      <c r="J45" t="s">
+        <v>313</v>
+      </c>
+      <c r="K45" t="s">
+        <v>314</v>
+      </c>
+      <c r="L45" t="s">
+        <v>315</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>316</v>
+      </c>
+      <c r="O45" t="s">
+        <v>79</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>317</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>318</v>
+      </c>
+      <c r="J46" t="s">
+        <v>319</v>
+      </c>
+      <c r="K46" t="s">
+        <v>320</v>
+      </c>
+      <c r="L46" t="s">
+        <v>321</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>264</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>323</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>324</v>
+      </c>
+      <c r="J47" t="s">
+        <v>325</v>
+      </c>
+      <c r="K47" t="s">
+        <v>326</v>
+      </c>
+      <c r="L47" t="s">
+        <v>327</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>2</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>329</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>330</v>
+      </c>
+      <c r="J48" t="s">
+        <v>325</v>
+      </c>
+      <c r="K48" t="s">
+        <v>331</v>
+      </c>
+      <c r="L48" t="s">
+        <v>332</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>333</v>
+      </c>
+      <c r="O48" t="s">
+        <v>66</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>334</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>335</v>
+      </c>
+      <c r="J49" t="s">
+        <v>336</v>
+      </c>
+      <c r="K49" t="s">
+        <v>337</v>
+      </c>
+      <c r="L49" t="s">
+        <v>338</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>339</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>340</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>341</v>
+      </c>
+      <c r="J50" t="s">
+        <v>342</v>
+      </c>
+      <c r="K50" t="s">
+        <v>343</v>
+      </c>
+      <c r="L50" t="s">
+        <v>344</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>345</v>
+      </c>
+      <c r="O50" t="s">
+        <v>257</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>347</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>348</v>
+      </c>
+      <c r="J51" t="s">
+        <v>342</v>
+      </c>
+      <c r="K51" t="s">
+        <v>349</v>
+      </c>
+      <c r="L51" t="s">
+        <v>350</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>345</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>2</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>352</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>353</v>
+      </c>
+      <c r="J52" t="s">
+        <v>354</v>
+      </c>
+      <c r="K52" t="s">
+        <v>355</v>
+      </c>
+      <c r="L52" t="s">
+        <v>356</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>345</v>
+      </c>
+      <c r="O52" t="s">
+        <v>79</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>358</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>359</v>
+      </c>
+      <c r="J53" t="s">
+        <v>360</v>
+      </c>
+      <c r="K53" t="s">
+        <v>361</v>
+      </c>
+      <c r="L53" t="s">
+        <v>362</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>363</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>365</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>366</v>
+      </c>
+      <c r="J54" t="s">
+        <v>367</v>
+      </c>
+      <c r="K54" t="s">
+        <v>368</v>
+      </c>
+      <c r="L54" t="s">
+        <v>369</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>370</v>
+      </c>
+      <c r="O54" t="s">
+        <v>79</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>2</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>372</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>373</v>
+      </c>
+      <c r="J55" t="s">
+        <v>374</v>
+      </c>
+      <c r="K55" t="s">
+        <v>375</v>
+      </c>
+      <c r="L55" t="s">
+        <v>376</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>363</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>378</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>379</v>
+      </c>
+      <c r="J56" t="s">
+        <v>380</v>
+      </c>
+      <c r="K56" t="s">
+        <v>381</v>
+      </c>
+      <c r="L56" t="s">
+        <v>382</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>383</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>385</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>386</v>
+      </c>
+      <c r="J57" t="s">
+        <v>387</v>
+      </c>
+      <c r="K57" t="s">
+        <v>388</v>
+      </c>
+      <c r="L57" t="s">
+        <v>389</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s">
+        <v>390</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>392</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>393</v>
+      </c>
+      <c r="J58" t="s">
+        <v>394</v>
+      </c>
+      <c r="K58" t="s">
+        <v>395</v>
+      </c>
+      <c r="L58" t="s">
+        <v>396</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>390</v>
+      </c>
+      <c r="O58" t="s">
+        <v>257</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>398</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>399</v>
+      </c>
+      <c r="J59" t="s">
+        <v>400</v>
+      </c>
+      <c r="K59" t="s">
+        <v>401</v>
+      </c>
+      <c r="L59" t="s">
+        <v>402</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>403</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>405</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>406</v>
+      </c>
+      <c r="J60" t="s">
+        <v>407</v>
+      </c>
+      <c r="K60" t="s">
+        <v>408</v>
+      </c>
+      <c r="L60" t="s">
+        <v>409</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>403</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>2</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>410</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>411</v>
+      </c>
+      <c r="J61" t="s">
+        <v>412</v>
+      </c>
+      <c r="K61" t="s">
+        <v>413</v>
+      </c>
+      <c r="L61" t="s">
+        <v>414</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>415</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>416</v>
+      </c>
+      <c r="J62" t="s">
+        <v>417</v>
+      </c>
+      <c r="K62" t="s">
+        <v>418</v>
+      </c>
+      <c r="L62" t="s">
+        <v>419</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>420</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>421</v>
+      </c>
+      <c r="J63" t="s">
+        <v>422</v>
+      </c>
+      <c r="K63" t="s">
+        <v>423</v>
+      </c>
+      <c r="L63" t="s">
+        <v>424</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>425</v>
+      </c>
+      <c r="O63" t="s">
+        <v>66</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>427</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>428</v>
+      </c>
+      <c r="J64" t="s">
+        <v>429</v>
+      </c>
+      <c r="K64" t="s">
+        <v>430</v>
+      </c>
+      <c r="L64" t="s">
+        <v>431</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>425</v>
+      </c>
+      <c r="O64" t="s">
+        <v>79</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>2</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>2</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>433</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>434</v>
+      </c>
+      <c r="J65" t="s">
+        <v>435</v>
+      </c>
+      <c r="K65" t="s">
+        <v>436</v>
+      </c>
+      <c r="L65" t="s">
+        <v>437</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>438</v>
+      </c>
+      <c r="O65" t="s">
+        <v>79</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>440</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>441</v>
+      </c>
+      <c r="J66" t="s">
+        <v>442</v>
+      </c>
+      <c r="K66" t="s">
+        <v>443</v>
+      </c>
+      <c r="L66" t="s">
+        <v>444</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="s">
+        <v>438</v>
+      </c>
+      <c r="O66" t="s">
+        <v>79</v>
+      </c>
+      <c r="P66" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>2</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>446</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>447</v>
+      </c>
+      <c r="J67" t="s">
+        <v>448</v>
+      </c>
+      <c r="K67" t="s">
+        <v>449</v>
+      </c>
+      <c r="L67" t="s">
+        <v>450</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>2</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>451</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>452</v>
+      </c>
+      <c r="J68" t="s">
+        <v>453</v>
+      </c>
+      <c r="K68" t="s">
+        <v>454</v>
+      </c>
+      <c r="L68" t="s">
+        <v>455</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="s">
+        <v>456</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>1</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>1</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>458</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>459</v>
+      </c>
+      <c r="J69" t="s">
+        <v>460</v>
+      </c>
+      <c r="K69" t="s">
+        <v>461</v>
+      </c>
+      <c r="L69" t="s">
+        <v>462</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>463</v>
+      </c>
+      <c r="O69" t="s">
+        <v>79</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>465</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>466</v>
+      </c>
+      <c r="J70" t="s">
+        <v>467</v>
+      </c>
+      <c r="K70" t="s">
+        <v>468</v>
+      </c>
+      <c r="L70" t="s">
+        <v>469</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>463</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>471</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>472</v>
+      </c>
+      <c r="J71" t="s">
+        <v>473</v>
+      </c>
+      <c r="K71" t="s">
+        <v>474</v>
+      </c>
+      <c r="L71" t="s">
+        <v>475</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
+        <v>476</v>
+      </c>
+      <c r="O71" t="s">
+        <v>79</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>1</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>2</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>478</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>479</v>
+      </c>
+      <c r="J72" t="s">
+        <v>480</v>
+      </c>
+      <c r="K72" t="s">
+        <v>481</v>
+      </c>
+      <c r="L72" t="s">
+        <v>482</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>483</v>
+      </c>
+      <c r="O72" t="s">
+        <v>79</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>3</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>484</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>485</v>
+      </c>
+      <c r="J73" t="s">
+        <v>486</v>
+      </c>
+      <c r="K73" t="s">
+        <v>487</v>
+      </c>
+      <c r="L73" t="s">
+        <v>488</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2</v>
+      </c>
+      <c r="N73" t="s">
+        <v>476</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>489</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>490</v>
+      </c>
+      <c r="J74" t="s">
+        <v>491</v>
+      </c>
+      <c r="K74" t="s">
+        <v>492</v>
+      </c>
+      <c r="L74" t="s">
+        <v>493</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2</v>
+      </c>
+      <c r="N74" t="s">
+        <v>494</v>
+      </c>
+      <c r="O74" t="s">
+        <v>79</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>1</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>496</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>497</v>
+      </c>
+      <c r="J75" t="s">
+        <v>498</v>
+      </c>
+      <c r="K75" t="s">
+        <v>499</v>
+      </c>
+      <c r="L75" t="s">
+        <v>500</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2</v>
+      </c>
+      <c r="N75" t="s">
+        <v>501</v>
+      </c>
+      <c r="O75" t="s">
+        <v>79</v>
+      </c>
+      <c r="P75" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>2</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>2</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>503</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>504</v>
+      </c>
+      <c r="J76" t="s">
+        <v>505</v>
+      </c>
+      <c r="K76" t="s">
+        <v>506</v>
+      </c>
+      <c r="L76" t="s">
+        <v>507</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>508</v>
+      </c>
+      <c r="O76" t="s">
+        <v>79</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>510</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>511</v>
+      </c>
+      <c r="J77" t="s">
+        <v>512</v>
+      </c>
+      <c r="K77" t="s">
+        <v>513</v>
+      </c>
+      <c r="L77" t="s">
+        <v>514</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>515</v>
+      </c>
+      <c r="O77" t="s">
+        <v>60</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>3</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>517</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>518</v>
+      </c>
+      <c r="J78" t="s">
+        <v>519</v>
+      </c>
+      <c r="K78" t="s">
+        <v>520</v>
+      </c>
+      <c r="L78" t="s">
+        <v>521</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>522</v>
+      </c>
+      <c r="O78" t="s">
+        <v>79</v>
+      </c>
+      <c r="P78" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>2</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2</v>
+      </c>
+      <c r="S78" t="n">
+        <v>2</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>524</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>525</v>
+      </c>
+      <c r="J79" t="s">
+        <v>526</v>
+      </c>
+      <c r="K79" t="s">
+        <v>527</v>
+      </c>
+      <c r="L79" t="s">
+        <v>528</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" t="s">
+        <v>529</v>
+      </c>
+      <c r="O79" t="s">
+        <v>66</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>2</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>2</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>2</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>531</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>532</v>
+      </c>
+      <c r="J80" t="s">
+        <v>533</v>
+      </c>
+      <c r="K80" t="s">
+        <v>534</v>
+      </c>
+      <c r="L80" t="s">
+        <v>535</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>536</v>
+      </c>
+      <c r="O80" t="s">
+        <v>66</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>537</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>538</v>
+      </c>
+      <c r="J81" t="s">
+        <v>539</v>
+      </c>
+      <c r="K81" t="s">
+        <v>540</v>
+      </c>
+      <c r="L81" t="s">
+        <v>541</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>542</v>
+      </c>
+      <c r="O81" t="s">
+        <v>79</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="s"/>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>543</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>544</v>
+      </c>
+      <c r="J82" t="s">
+        <v>545</v>
+      </c>
+      <c r="K82" t="s">
+        <v>546</v>
+      </c>
+      <c r="L82" t="s">
+        <v>547</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s">
+        <v>548</v>
+      </c>
+      <c r="O82" t="s">
+        <v>66</v>
+      </c>
+      <c r="P82" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>2</v>
+      </c>
+      <c r="S82" t="n">
+        <v>3</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>1</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>550</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>551</v>
+      </c>
+      <c r="J83" t="s">
+        <v>552</v>
+      </c>
+      <c r="K83" t="s">
+        <v>553</v>
+      </c>
+      <c r="L83" t="s">
+        <v>554</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="s">
+        <v>555</v>
+      </c>
+      <c r="O83" t="s">
+        <v>79</v>
+      </c>
+      <c r="P83" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>1</v>
+      </c>
+      <c r="R83" t="n">
+        <v>3</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>1</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>557</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>558</v>
+      </c>
+      <c r="J84" t="s">
+        <v>559</v>
+      </c>
+      <c r="K84" t="s">
+        <v>560</v>
+      </c>
+      <c r="L84" t="s">
+        <v>561</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>562</v>
+      </c>
+      <c r="O84" t="s">
+        <v>53</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>564</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>565</v>
+      </c>
+      <c r="J85" t="s">
+        <v>566</v>
+      </c>
+      <c r="K85" t="s">
+        <v>567</v>
+      </c>
+      <c r="L85" t="s">
+        <v>568</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>569</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>570</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>571</v>
+      </c>
+      <c r="J86" t="s">
+        <v>572</v>
+      </c>
+      <c r="K86" t="s">
+        <v>573</v>
+      </c>
+      <c r="L86" t="s">
+        <v>574</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s">
+        <v>575</v>
+      </c>
+      <c r="O86" t="s">
+        <v>79</v>
+      </c>
+      <c r="P86" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>3</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>1</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>577</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>578</v>
+      </c>
+      <c r="J87" t="s">
+        <v>579</v>
+      </c>
+      <c r="K87" t="s">
+        <v>580</v>
+      </c>
+      <c r="L87" t="s">
+        <v>581</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2</v>
+      </c>
+      <c r="N87" t="s">
+        <v>582</v>
+      </c>
+      <c r="O87" t="s">
+        <v>66</v>
+      </c>
+      <c r="P87" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>584</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>585</v>
+      </c>
+      <c r="J88" t="s">
+        <v>586</v>
+      </c>
+      <c r="K88" t="s">
+        <v>587</v>
+      </c>
+      <c r="L88" t="s">
+        <v>588</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>589</v>
+      </c>
+      <c r="O88" t="s">
+        <v>79</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="s"/>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>591</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>592</v>
+      </c>
+      <c r="J89" t="s">
+        <v>593</v>
+      </c>
+      <c r="K89" t="s">
+        <v>594</v>
+      </c>
+      <c r="L89" t="s">
+        <v>595</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s"/>
+      <c r="O89" t="s"/>
+      <c r="P89" t="s"/>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="s"/>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="s"/>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>596</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>597</v>
+      </c>
+      <c r="J90" t="s">
+        <v>598</v>
+      </c>
+      <c r="K90" t="s">
+        <v>599</v>
+      </c>
+      <c r="L90" t="s">
+        <v>600</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s"/>
+      <c r="O90" t="s"/>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="s"/>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>5311</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>601</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>602</v>
+      </c>
+      <c r="J91" t="s">
+        <v>603</v>
+      </c>
+      <c r="K91" t="s">
+        <v>604</v>
+      </c>
+      <c r="L91" t="s">
+        <v>605</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s"/>
+      <c r="O91" t="s"/>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="s"/>
+      <c r="T91" t="s"/>
+      <c r="U91" t="s"/>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>605</v>
       </c>
     </row>
   </sheetData>
